--- a/5_results/5_1_original/predictors_set_7.xlsx
+++ b/5_results/5_1_original/predictors_set_7.xlsx
@@ -714,18 +714,18 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.004012584686279297</v>
+        <v>0.004269123077392578</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>0.1638264656066895</v>
+        <v>0.1526565551757812</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004012584686279297</v>
+        <v>0.004269123077392578</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>0.1638264656066895</v>
+        <v>0.1526565551757812</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -812,7 +812,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LightGBM_r131_FULL</t>
+          <t>LightGBM_r121_FULL</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -822,34 +822,34 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E3" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F3" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9513343799058085</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.9077380952380952</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9354838709677419</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.75</v>
-      </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1519661465481327</v>
+        <v>-0.1597314924946108</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6368170921281917</v>
+        <v>0.6196997289865176</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
@@ -858,18 +858,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.004561901092529297</v>
+        <v>0.005754947662353516</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0.2028350830078125</v>
+        <v>0.2330615520477295</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004561901092529297</v>
+        <v>0.005754947662353516</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>0.2028350830078125</v>
+        <v>0.2330615520477295</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="Y3" t="n">
         <v>19</v>
@@ -890,16 +890,16 @@
         <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>790694</v>
+        <v>1036329</v>
       </c>
       <c r="AC3" t="n">
-        <v>790694</v>
+        <v>1036329</v>
       </c>
       <c r="AD3" t="n">
-        <v>790694</v>
+        <v>1036329</v>
       </c>
       <c r="AE3" t="n">
-        <v>790694</v>
+        <v>1036329</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
@@ -920,12 +920,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.012144796373999013, 'extra_trees': False, 'feature_fraction': 0.7023601671276614, 'min_data_in_leaf': 14, 'num_leaves': 53, 'num_boost_round': 412}</t>
+          <t>{'learning_rate': 0.010305352949119608, 'extra_trees': False, 'feature_fraction': 0.5730390983988963, 'min_data_in_leaf': 10, 'num_leaves': 215, 'num_boost_round': 397}</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 412}</t>
+          <t>{'num_boost_round': 397}</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LightGBM_r121_FULL</t>
+          <t>LightGBM_r131_FULL</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -966,34 +966,34 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9513343799058085</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="H4" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1597314924946108</v>
+        <v>-0.1519661465481327</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6196997289865176</v>
+        <v>0.6368170921281917</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
@@ -1002,18 +1002,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.006341934204101562</v>
+        <v>0.005757808685302734</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.2235221862792969</v>
+        <v>0.2020535469055176</v>
       </c>
       <c r="S4" t="n">
-        <v>0.006341934204101562</v>
+        <v>0.005757808685302734</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0.2235221862792969</v>
+        <v>0.2020535469055176</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="Y4" t="n">
         <v>19</v>
@@ -1034,16 +1034,16 @@
         <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1036329</v>
+        <v>790694</v>
       </c>
       <c r="AC4" t="n">
-        <v>1036329</v>
+        <v>790694</v>
       </c>
       <c r="AD4" t="n">
-        <v>1036329</v>
+        <v>790694</v>
       </c>
       <c r="AE4" t="n">
-        <v>1036329</v>
+        <v>790694</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.010305352949119608, 'extra_trees': False, 'feature_fraction': 0.5730390983988963, 'min_data_in_leaf': 10, 'num_leaves': 215, 'num_boost_round': 397}</t>
+          <t>{'learning_rate': 0.012144796373999013, 'extra_trees': False, 'feature_fraction': 0.7023601671276614, 'min_data_in_leaf': 14, 'num_leaves': 53, 'num_boost_round': 412}</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 397}</t>
+          <t>{'num_boost_round': 412}</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -1146,18 +1146,18 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.008669614791870117</v>
+        <v>0.01001620292663574</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>0.04836130142211914</v>
+        <v>0.047760009765625</v>
       </c>
       <c r="S5" t="n">
-        <v>0.008669614791870117</v>
+        <v>0.01001620292663574</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.04836130142211914</v>
+        <v>0.047760009765625</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
@@ -1290,18 +1290,18 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.009345769882202148</v>
+        <v>0.01002740859985352</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0.1623730659484863</v>
+        <v>0.1243221759796143</v>
       </c>
       <c r="S6" t="n">
-        <v>0.009345769882202148</v>
+        <v>0.01002740859985352</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.1623730659484863</v>
+        <v>0.1243221759796143</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -1434,18 +1434,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.01294302940368652</v>
+        <v>0.01465010643005371</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>0.1296193599700928</v>
+        <v>0.1343653202056885</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01294302940368652</v>
+        <v>0.01465010643005371</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>0.1296193599700928</v>
+        <v>0.1343653202056885</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1578,18 +1578,18 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.003999948501586914</v>
+        <v>0.004010677337646484</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>0.1995875835418701</v>
+        <v>0.2074615955352783</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003999948501586914</v>
+        <v>0.004010677337646484</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>0.1995875835418701</v>
+        <v>0.2074615955352783</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1722,18 +1722,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.006011486053466797</v>
+        <v>0.006067991256713867</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>0.2084524631500244</v>
+        <v>0.2303977012634277</v>
       </c>
       <c r="S9" t="n">
-        <v>0.006011486053466797</v>
+        <v>0.006067991256713867</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>0.2084524631500244</v>
+        <v>0.2303977012634277</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -1866,18 +1866,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.009835481643676758</v>
+        <v>0.01002287864685059</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>0.1044275760650635</v>
+        <v>0.1230969429016113</v>
       </c>
       <c r="S10" t="n">
-        <v>0.009835481643676758</v>
+        <v>0.01002287864685059</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>0.1044275760650635</v>
+        <v>0.1230969429016113</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -2010,18 +2010,18 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.01306366920471191</v>
+        <v>0.01292204856872559</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0.0424354076385498</v>
+        <v>0.0397036075592041</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01306366920471191</v>
+        <v>0.01292204856872559</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>0.0424354076385498</v>
+        <v>0.0397036075592041</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -2154,18 +2154,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.06476831436157227</v>
+        <v>0.06527566909790039</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>0.8069028854370117</v>
+        <v>0.7654941082000732</v>
       </c>
       <c r="S12" t="n">
-        <v>0.06476831436157227</v>
+        <v>0.06527566909790039</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>0.8069028854370117</v>
+        <v>0.7654941082000732</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -2298,18 +2298,18 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.005483150482177734</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>0.0403900146484375</v>
+        <v>0.03947305679321289</v>
       </c>
       <c r="S13" t="n">
-        <v>0.005483150482177734</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>0.0403900146484375</v>
+        <v>0.03947305679321289</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2442,18 +2442,18 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.01715373992919922</v>
+        <v>0.007125139236450195</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>0.05462884902954102</v>
+        <v>0.04164338111877441</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01715373992919922</v>
+        <v>0.007125139236450195</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>0.05462884902954102</v>
+        <v>0.04164338111877441</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -2586,18 +2586,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.07198190689086914</v>
+        <v>0.0706489086151123</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>0.6469330787658691</v>
+        <v>0.6688010692596436</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07198190689086914</v>
+        <v>0.0706489086151123</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>0.6469330787658691</v>
+        <v>0.6688010692596436</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2684,7 +2684,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CatBoost_r198_FULL</t>
+          <t>CatBoost_r9_FULL</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2694,34 +2694,34 @@
         <v>0.9866666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8966666666666667</v>
+        <v>0.98</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8966666666666667</v>
+        <v>0.9513343799058085</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="I16" t="n">
         <v>0.9484126984126984</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1823533300034118</v>
+        <v>-0.1978873557070135</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5705846584313469</v>
+        <v>0.5374960031785821</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
@@ -2730,18 +2730,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>1.765476226806641</v>
+        <v>1.71259880065918</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>1.765476226806641</v>
+        <v>1.71259880065918</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -2762,16 +2762,16 @@
         <v>1</v>
       </c>
       <c r="AB16" t="n">
-        <v>1230002</v>
+        <v>1546714</v>
       </c>
       <c r="AC16" t="n">
-        <v>1230002</v>
+        <v>1546714</v>
       </c>
       <c r="AD16" t="n">
-        <v>1230002</v>
+        <v>1546714</v>
       </c>
       <c r="AE16" t="n">
-        <v>1230002</v>
+        <v>1546714</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>{'iterations': 1095, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 317, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>{'iterations': 1095}</t>
+          <t>{'iterations': 317}</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
@@ -2874,18 +2874,18 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.004152059555053711</v>
+        <v>0.00415802001953125</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>0.5808885097503662</v>
+        <v>0.6192169189453125</v>
       </c>
       <c r="S17" t="n">
-        <v>0.004152059555053711</v>
+        <v>0.00415802001953125</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>0.5808885097503662</v>
+        <v>0.6192169189453125</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CatBoost_r9_FULL</t>
+          <t>LightGBM_r143_FULL</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2982,34 +2982,34 @@
         <v>0.9866666666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E18" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9513343799058085</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="H18" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I18" t="n">
         <v>0.9484126984126984</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1978873557070135</v>
+        <v>-0.2051420588237542</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5374960031785821</v>
+        <v>0.5222181270340129</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
@@ -3018,18 +3018,18 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.004891395568847656</v>
+        <v>0.004910945892333984</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>1.699897289276123</v>
+        <v>0.1690740585327148</v>
       </c>
       <c r="S18" t="n">
-        <v>0.004891395568847656</v>
+        <v>0.004910945892333984</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>1.699897289276123</v>
+        <v>0.1690740585327148</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="n">
         <v>19</v>
@@ -3050,16 +3050,16 @@
         <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>1546714</v>
+        <v>427950</v>
       </c>
       <c r="AC18" t="n">
-        <v>1546714</v>
+        <v>427950</v>
       </c>
       <c r="AD18" t="n">
-        <v>1546714</v>
+        <v>427950</v>
       </c>
       <c r="AE18" t="n">
-        <v>1546714</v>
+        <v>427950</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr"/>
@@ -3080,12 +3080,12 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>{'iterations': 317, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
+          <t>{'learning_rate': 0.01343464462043561, 'extra_trees': False, 'feature_fraction': 0.9408897917880529, 'min_data_in_leaf': 21, 'num_leaves': 178, 'num_boost_round': 321}</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>{'iterations': 317}</t>
+          <t>{'num_boost_round': 321}</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
@@ -3162,18 +3162,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.004926919937133789</v>
+        <v>0.006015539169311523</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>2.882442235946655</v>
+        <v>2.971284866333008</v>
       </c>
       <c r="S19" t="n">
-        <v>0.004926919937133789</v>
+        <v>0.006015539169311523</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.882442235946655</v>
+        <v>2.971284866333008</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -3260,7 +3260,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LightGBM_r143_FULL</t>
+          <t>CatBoost_r198_FULL</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3270,34 +3270,34 @@
         <v>0.9866666666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8966666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.8966666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="I20" t="n">
         <v>0.9484126984126984</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.2051420588237542</v>
+        <v>-0.1823533300034118</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5222181270340129</v>
+        <v>0.5705846584313469</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
@@ -3306,18 +3306,18 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.005905628204345703</v>
+        <v>0.008004188537597656</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>0.1501107215881348</v>
+        <v>1.777068376541138</v>
       </c>
       <c r="S20" t="n">
-        <v>0.005905628204345703</v>
+        <v>0.008004188537597656</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>0.1501107215881348</v>
+        <v>1.777068376541138</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="n">
         <v>19</v>
@@ -3338,16 +3338,16 @@
         <v>1</v>
       </c>
       <c r="AB20" t="n">
-        <v>427950</v>
+        <v>1230002</v>
       </c>
       <c r="AC20" t="n">
-        <v>427950</v>
+        <v>1230002</v>
       </c>
       <c r="AD20" t="n">
-        <v>427950</v>
+        <v>1230002</v>
       </c>
       <c r="AE20" t="n">
-        <v>427950</v>
+        <v>1230002</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr"/>
@@ -3368,12 +3368,12 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.01343464462043561, 'extra_trees': False, 'feature_fraction': 0.9408897917880529, 'min_data_in_leaf': 21, 'num_leaves': 178, 'num_boost_round': 321}</t>
+          <t>{'iterations': 1095, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 321}</t>
+          <t>{'iterations': 1095}</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
@@ -3452,22 +3452,22 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.004009008407592773</v>
+        <v>0.004012346267700195</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.002003192901611328</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3699162006378174</v>
+        <v>0.4136645793914795</v>
       </c>
       <c r="S21" t="n">
-        <v>0.004009008407592773</v>
+        <v>0.004012346267700195</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.002003192901611328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3699162006378174</v>
+        <v>0.4136645793914795</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3600,18 +3600,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.007830381393432617</v>
+        <v>0.007765293121337891</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>0.06041073799133301</v>
+        <v>0.05996370315551758</v>
       </c>
       <c r="S22" t="n">
-        <v>0.007830381393432617</v>
+        <v>0.007765293121337891</v>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>0.06041073799133301</v>
+        <v>0.05996370315551758</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -3744,18 +3744,18 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.06649684906005859</v>
+        <v>0.06467056274414062</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>0.7928476333618164</v>
+        <v>0.8930630683898926</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06649684906005859</v>
+        <v>0.06467056274414062</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>0.7928476333618164</v>
+        <v>0.8930630683898926</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3888,18 +3888,18 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.003000020980834961</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>0.4324605464935303</v>
+        <v>0.4209432601928711</v>
       </c>
       <c r="S24" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.003000020980834961</v>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>0.4324605464935303</v>
+        <v>0.4209432601928711</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -3986,7 +3986,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RandomForest_r16_FULL</t>
+          <t>RandomForest_r195_FULL</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4020,10 +4020,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.1630181592305441</v>
+        <v>-0.1768152393236878</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6124947133060376</v>
+        <v>0.5825060082189283</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
@@ -4032,18 +4032,18 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.04944539070129395</v>
+        <v>0.05043578147888184</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>0.8875219821929932</v>
+        <v>0.7389075756072998</v>
       </c>
       <c r="S25" t="n">
-        <v>0.04944539070129395</v>
+        <v>0.05043578147888184</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>0.8875219821929932</v>
+        <v>0.7389075756072998</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -4064,22 +4064,22 @@
         <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>1061748</v>
+        <v>1125590</v>
       </c>
       <c r="AC25" t="n">
-        <v>1061748</v>
+        <v>1125590</v>
       </c>
       <c r="AD25" t="n">
-        <v>1061748</v>
+        <v>1125590</v>
       </c>
       <c r="AE25" t="n">
-        <v>1061748</v>
+        <v>1125590</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 48136, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 1}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 37308, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -4123,14 +4123,14 @@
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>['WeightedEnsemble_L2_FULL']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RandomForest_r195_FULL</t>
+          <t>RandomForest_r16_FULL</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4164,10 +4164,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.1768152393236878</v>
+        <v>-0.1630181592305441</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5825060082189283</v>
+        <v>0.6124947133060376</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
@@ -4176,18 +4176,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.06218671798706055</v>
+        <v>0.05281782150268555</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>0.823939323425293</v>
+        <v>0.8697032928466797</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06218671798706055</v>
+        <v>0.05281782150268555</v>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>0.823939323425293</v>
+        <v>0.8697032928466797</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="Y26" t="n">
         <v>19</v>
@@ -4208,22 +4208,22 @@
         <v>1</v>
       </c>
       <c r="AB26" t="n">
-        <v>1125590</v>
+        <v>1061748</v>
       </c>
       <c r="AC26" t="n">
-        <v>1125590</v>
+        <v>1061748</v>
       </c>
       <c r="AD26" t="n">
-        <v>1125590</v>
+        <v>1061748</v>
       </c>
       <c r="AE26" t="n">
-        <v>1125590</v>
+        <v>1061748</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 37308, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 1}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 48136, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['WeightedEnsemble_L2_FULL']</t>
         </is>
       </c>
     </row>
@@ -4320,18 +4320,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.08283042907714844</v>
+        <v>0.08216953277587891</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>4.854941368103027</v>
+        <v>4.998028039932251</v>
       </c>
       <c r="S27" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.002999782562255859</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>0.1243541240692139</v>
+        <v>0.147050142288208</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>['NeuralNetFastAI_r187', 'NeuralNetTorch_r121', 'RandomForest_r16', 'LightGBMLarge']</t>
+          <t>['NeuralNetTorch_r121', 'NeuralNetFastAI_r187', 'LightGBMLarge', 'RandomForest_r16']</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>['NeuralNetFastAI_r187_FULL', 'LightGBMLarge_FULL', 'NeuralNetTorch_r121_FULL', 'RandomForest_r16_FULL']</t>
+          <t>['LightGBMLarge_FULL', 'NeuralNetFastAI_r187_FULL', 'RandomForest_r16_FULL', 'NeuralNetTorch_r121_FULL']</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -4480,18 +4480,18 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.006011486053466797</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>0.04334235191345215</v>
+        <v>0.0437314510345459</v>
       </c>
       <c r="S28" t="n">
-        <v>0.006011486053466797</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>0.04334235191345215</v>
+        <v>0.0437314510345459</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -4624,18 +4624,18 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.03055620193481445</v>
+        <v>0.02914643287658691</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>0.3526229858398438</v>
+        <v>0.3891851902008057</v>
       </c>
       <c r="S29" t="n">
-        <v>0.03055620193481445</v>
+        <v>0.02914643287658691</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>0.3526229858398438</v>
+        <v>0.3891851902008057</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -4770,22 +4770,22 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.01501107215881348</v>
+        <v>0.01659846305847168</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.008460283279418945</v>
+        <v>0.008018016815185547</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2591054439544678</v>
+        <v>0.2769315242767334</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01501107215881348</v>
+        <v>0.01659846305847168</v>
       </c>
       <c r="T30" t="n">
-        <v>0.008460283279418945</v>
+        <v>0.008018016815185547</v>
       </c>
       <c r="U30" t="n">
-        <v>0.2591054439544678</v>
+        <v>0.2769315242767334</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -4872,7 +4872,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CatBoost_r177_FULL</t>
+          <t>CatBoost_FULL</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4882,34 +4882,34 @@
         <v>0.98</v>
       </c>
       <c r="D31" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E31" t="n">
-        <v>0.98</v>
+        <v>0.8133333333333332</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9513343799058085</v>
+        <v>0.8342245989304813</v>
       </c>
       <c r="H31" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I31" t="n">
         <v>0.9150793650793649</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.1977173297824436</v>
+        <v>-0.1886515464418098</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5378554555208378</v>
+        <v>0.5571069613814402</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
@@ -4918,18 +4918,18 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.002967357635498047</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>0.4724469184875488</v>
+        <v>10.43976807594299</v>
       </c>
       <c r="S31" t="n">
-        <v>0.002967357635498047</v>
+        <v>0</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>0.4724469184875488</v>
+        <v>10.43976807594299</v>
       </c>
       <c r="V31" t="n">
         <v>1</v>
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Y31" t="n">
         <v>19</v>
@@ -4950,16 +4950,16 @@
         <v>1</v>
       </c>
       <c r="AB31" t="n">
-        <v>363978</v>
+        <v>4833126</v>
       </c>
       <c r="AC31" t="n">
-        <v>363978</v>
+        <v>4833126</v>
       </c>
       <c r="AD31" t="n">
-        <v>363978</v>
+        <v>4833126</v>
       </c>
       <c r="AE31" t="n">
-        <v>363978</v>
+        <v>4833126</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -4980,12 +4980,12 @@
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>{'iterations': 317, 'learning_rate': 0.06864209415792857, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.1542798306067823, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 4330, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>{'iterations': 317}</t>
+          <t>{'iterations': 4330}</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
@@ -5016,7 +5016,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CatBoost_r5_FULL</t>
+          <t>CatBoost_r177_FULL</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5026,34 +5026,34 @@
         <v>0.98</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E32" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9077380952380952</v>
+        <v>0.9513343799058085</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="I32" t="n">
         <v>0.9150793650793649</v>
       </c>
       <c r="J32" t="n">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.1644817917585245</v>
+        <v>-0.1977173297824436</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6092937295473859</v>
+        <v>0.5378554555208378</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
@@ -5062,18 +5062,18 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.004000425338745117</v>
+        <v>0.003752946853637695</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>0.7247216701507568</v>
+        <v>0.4810025691986084</v>
       </c>
       <c r="S32" t="n">
-        <v>0.004000425338745117</v>
+        <v>0.003752946853637695</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>0.7247216701507568</v>
+        <v>0.4810025691986084</v>
       </c>
       <c r="V32" t="n">
         <v>1</v>
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="Y32" t="n">
         <v>19</v>
@@ -5094,16 +5094,16 @@
         <v>1</v>
       </c>
       <c r="AB32" t="n">
-        <v>226750</v>
+        <v>363978</v>
       </c>
       <c r="AC32" t="n">
-        <v>226750</v>
+        <v>363978</v>
       </c>
       <c r="AD32" t="n">
-        <v>226750</v>
+        <v>363978</v>
       </c>
       <c r="AE32" t="n">
-        <v>226750</v>
+        <v>363978</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -5124,12 +5124,12 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>{'iterations': 651, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 317, 'learning_rate': 0.06864209415792857, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.1542798306067823, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>{'iterations': 651}</t>
+          <t>{'iterations': 317}</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
@@ -5206,18 +5206,18 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.004110336303710938</v>
+        <v>0.004007101058959961</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>0.7257006168365479</v>
+        <v>0.7724101543426514</v>
       </c>
       <c r="S33" t="n">
-        <v>0.004110336303710938</v>
+        <v>0.004007101058959961</v>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>0.7257006168365479</v>
+        <v>0.7724101543426514</v>
       </c>
       <c r="V33" t="n">
         <v>1</v>
@@ -5304,7 +5304,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CatBoost_r9</t>
+          <t>CatBoost_r5_FULL</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5314,60 +5314,54 @@
         <v>0.98</v>
       </c>
       <c r="D34" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="E34" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9513343799058085</v>
+        <v>0.9077380952380952</v>
       </c>
       <c r="H34" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="I34" t="n">
         <v>0.9150793650793649</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.2338138437674544</v>
+        <v>-0.1644817917585245</v>
       </c>
       <c r="M34" t="n">
-        <v>0.462910179573265</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.9064731700761113</v>
-      </c>
+        <v>0.6092937295473859</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.007002115249633789</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.002839088439941406</v>
-      </c>
+        <v>0.004011869430541992</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>3.338329315185547</v>
+        <v>0.7796623706817627</v>
       </c>
       <c r="S34" t="n">
-        <v>0.007002115249633789</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.002839088439941406</v>
-      </c>
+        <v>0.004011869430541992</v>
+      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>3.338329315185547</v>
+        <v>0.7796623706817627</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
@@ -5376,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="Y34" t="n">
         <v>19</v>
@@ -5388,16 +5382,16 @@
         <v>1</v>
       </c>
       <c r="AB34" t="n">
-        <v>1550222</v>
+        <v>226750</v>
       </c>
       <c r="AC34" t="n">
-        <v>1550222</v>
+        <v>226750</v>
       </c>
       <c r="AD34" t="n">
-        <v>1550222</v>
+        <v>226750</v>
       </c>
       <c r="AE34" t="n">
-        <v>1550222</v>
+        <v>226750</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -5418,17 +5412,17 @@
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
+          <t>{'iterations': 651, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>{'iterations': 317}</t>
+          <t>{'iterations': 651}</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
@@ -5454,7 +5448,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CatBoost_FULL</t>
+          <t>CatBoost_r9</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5464,54 +5458,60 @@
         <v>0.98</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8133333333333332</v>
+        <v>0.98</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8342245989304813</v>
+        <v>0.9513343799058085</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="I35" t="n">
         <v>0.9150793650793649</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.1886515464418098</v>
+        <v>-0.2338138437674544</v>
       </c>
       <c r="M35" t="n">
-        <v>0.5571069613814402</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0.462910179573265</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.9064731700761113</v>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.009038686752319336</v>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+        <v>0.005759000778198242</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
       <c r="R35" t="n">
-        <v>10.16417741775513</v>
+        <v>3.315012216567993</v>
       </c>
       <c r="S35" t="n">
-        <v>0.009038686752319336</v>
-      </c>
-      <c r="T35" t="inlineStr"/>
+        <v>0.005759000778198242</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
       <c r="U35" t="n">
-        <v>10.16417741775513</v>
+        <v>3.315012216567993</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -5520,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="Y35" t="n">
         <v>19</v>
@@ -5532,16 +5532,16 @@
         <v>1</v>
       </c>
       <c r="AB35" t="n">
-        <v>4833126</v>
+        <v>1550222</v>
       </c>
       <c r="AC35" t="n">
-        <v>4833126</v>
+        <v>1550222</v>
       </c>
       <c r="AD35" t="n">
-        <v>4833126</v>
+        <v>1550222</v>
       </c>
       <c r="AE35" t="n">
-        <v>4833126</v>
+        <v>1550222</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -5562,17 +5562,17 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>{'iterations': 4330, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>{'iterations': 4330}</t>
+          <t>{'iterations': 317}</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
@@ -5644,18 +5644,18 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.004010677337646484</v>
+        <v>0.005079269409179688</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>1.8812415599823</v>
+        <v>1.931731224060059</v>
       </c>
       <c r="S36" t="n">
-        <v>0.004010677337646484</v>
+        <v>0.005079269409179688</v>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>1.8812415599823</v>
+        <v>1.931731224060059</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
@@ -5788,18 +5788,18 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.005865573883056641</v>
+        <v>0.005880594253540039</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>0.180368185043335</v>
+        <v>0.168755054473877</v>
       </c>
       <c r="S37" t="n">
-        <v>0.005865573883056641</v>
+        <v>0.005880594253540039</v>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>0.180368185043335</v>
+        <v>0.168755054473877</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -5932,18 +5932,18 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.007141351699829102</v>
+        <v>0.007310390472412109</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>3.566614866256714</v>
+        <v>3.638315200805664</v>
       </c>
       <c r="S38" t="n">
-        <v>0.007141351699829102</v>
+        <v>0.007310390472412109</v>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3.566614866256714</v>
+        <v>3.638315200805664</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -6076,18 +6076,18 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.004007577896118164</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>0.7826762199401855</v>
+        <v>0.8467276096343994</v>
       </c>
       <c r="S39" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.004007577896118164</v>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>0.7826762199401855</v>
+        <v>0.8467276096343994</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -6174,7 +6174,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CatBoost_r163</t>
+          <t>CatBoost_r12_FULL</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6184,60 +6184,54 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7933333333333333</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="I40" t="n">
         <v>0.8968253968253967</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.2511642003600313</v>
+        <v>-0.2047114732951982</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4278383178050907</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.9044550084991262</v>
-      </c>
+        <v>0.5231215946042104</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
+        <v>0.003212213516235352</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>0.99603271484375</v>
+        <v>1.203578472137451</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
+        <v>0.003212213516235352</v>
+      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.99603271484375</v>
+        <v>1.203578472137451</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -6246,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="X40" t="n">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="Y40" t="n">
         <v>19</v>
@@ -6258,16 +6252,16 @@
         <v>1</v>
       </c>
       <c r="AB40" t="n">
-        <v>239358</v>
+        <v>1351360</v>
       </c>
       <c r="AC40" t="n">
-        <v>239358</v>
+        <v>1351360</v>
       </c>
       <c r="AD40" t="n">
-        <v>239358</v>
+        <v>1351360</v>
       </c>
       <c r="AE40" t="n">
-        <v>239358</v>
+        <v>1351360</v>
       </c>
       <c r="AF40" t="n">
         <v>0</v>
@@ -6288,17 +6282,17 @@
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 626, 'learning_rate': 0.03534026385152556, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.835797074498082, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>{'iterations': 332}</t>
+          <t>{'iterations': 626}</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN40" t="inlineStr">
@@ -6324,7 +6318,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CatBoost_r12_FULL</t>
+          <t>CatBoost_r163</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6334,54 +6328,60 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8766666666666667</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I41" t="n">
         <v>0.8968253968253967</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.2047114732951982</v>
+        <v>-0.2511642003600313</v>
       </c>
       <c r="M41" t="n">
-        <v>0.5231215946042104</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0.4278383178050907</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.9044550084991262</v>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="inlineStr"/>
+        <v>0.004011869430541992</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
       <c r="R41" t="n">
-        <v>1.22832727432251</v>
+        <v>0.996941089630127</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="inlineStr"/>
+        <v>0.004011869430541992</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
       <c r="U41" t="n">
-        <v>1.22832727432251</v>
+        <v>0.996941089630127</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -6402,16 +6402,16 @@
         <v>1</v>
       </c>
       <c r="AB41" t="n">
-        <v>1351360</v>
+        <v>239358</v>
       </c>
       <c r="AC41" t="n">
-        <v>1351360</v>
+        <v>239358</v>
       </c>
       <c r="AD41" t="n">
-        <v>1351360</v>
+        <v>239358</v>
       </c>
       <c r="AE41" t="n">
-        <v>1351360</v>
+        <v>239358</v>
       </c>
       <c r="AF41" t="n">
         <v>0</v>
@@ -6432,17 +6432,17 @@
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>{'iterations': 626, 'learning_rate': 0.03534026385152556, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.835797074498082, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>{'iterations': 626}</t>
+          <t>{'iterations': 332}</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN41" t="inlineStr">
@@ -6518,14 +6518,14 @@
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>0.4347431659698486</v>
+        <v>0.4476006031036377</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>0.4347431659698486</v>
+        <v>0.4476006031036377</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -6660,22 +6660,22 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.01278924942016602</v>
+        <v>0.01177048683166504</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.003491401672363281</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2048079967498779</v>
+        <v>0.2249078750610352</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01278924942016602</v>
+        <v>0.01177048683166504</v>
       </c>
       <c r="T43" t="n">
-        <v>0.003491401672363281</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="U43" t="n">
-        <v>0.2048079967498779</v>
+        <v>0.2249078750610352</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
@@ -6810,22 +6810,22 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.008020401000976562</v>
+        <v>0.009763002395629883</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01663684844970703</v>
+        <v>0.008902788162231445</v>
       </c>
       <c r="R44" t="n">
-        <v>1.149946928024292</v>
+        <v>1.162484645843506</v>
       </c>
       <c r="S44" t="n">
-        <v>0.008020401000976562</v>
+        <v>0.009763002395629883</v>
       </c>
       <c r="T44" t="n">
-        <v>0.01663684844970703</v>
+        <v>0.008902788162231445</v>
       </c>
       <c r="U44" t="n">
-        <v>1.149946928024292</v>
+        <v>1.162484645843506</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
@@ -6960,22 +6960,22 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.01670384407043457</v>
+        <v>0.01578426361083984</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4030377864837646</v>
+        <v>0.3918051719665527</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01670384407043457</v>
+        <v>0.01578426361083984</v>
       </c>
       <c r="T45" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="U45" t="n">
-        <v>0.4030377864837646</v>
+        <v>0.3918051719665527</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -7110,22 +7110,22 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.06737732887268066</v>
+        <v>0.06627488136291504</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.03839373588562012</v>
+        <v>0.04017162322998047</v>
       </c>
       <c r="R46" t="n">
-        <v>0.7268781661987305</v>
+        <v>0.6333646774291992</v>
       </c>
       <c r="S46" t="n">
-        <v>0.06737732887268066</v>
+        <v>0.06627488136291504</v>
       </c>
       <c r="T46" t="n">
-        <v>0.03839373588562012</v>
+        <v>0.04017162322998047</v>
       </c>
       <c r="U46" t="n">
-        <v>0.7268781661987305</v>
+        <v>0.6333646774291992</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -7258,18 +7258,18 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.004629850387573242</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>1.128923892974854</v>
+        <v>1.150527954101562</v>
       </c>
       <c r="S47" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.004629850387573242</v>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>1.128923892974854</v>
+        <v>1.150527954101562</v>
       </c>
       <c r="V47" t="n">
         <v>1</v>
@@ -7402,18 +7402,18 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.02689743041992188</v>
+        <v>0.02838850021362305</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>0.4796857833862305</v>
+        <v>0.4798669815063477</v>
       </c>
       <c r="S48" t="n">
-        <v>0.02689743041992188</v>
+        <v>0.02838850021362305</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.4796857833862305</v>
+        <v>0.4798669815063477</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -7546,18 +7546,18 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.003072023391723633</v>
+        <v>0.001871109008789062</v>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>0.09388589859008789</v>
+        <v>0.1110770702362061</v>
       </c>
       <c r="S49" t="n">
-        <v>0.003072023391723633</v>
+        <v>0.001871109008789062</v>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>0.09388589859008789</v>
+        <v>0.1110770702362061</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -7692,22 +7692,22 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.006650924682617188</v>
+        <v>0.006017684936523438</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>2.27912974357605</v>
+        <v>2.220685958862305</v>
       </c>
       <c r="S50" t="n">
-        <v>0.006650924682617188</v>
+        <v>0.006017684936523438</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>2.27912974357605</v>
+        <v>2.220685958862305</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -7842,22 +7842,22 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.01458287239074707</v>
+        <v>0.01404380798339844</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004014015197753906</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2588305473327637</v>
+        <v>0.272930383682251</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01458287239074707</v>
+        <v>0.01404380798339844</v>
       </c>
       <c r="T51" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004014015197753906</v>
       </c>
       <c r="U51" t="n">
-        <v>0.2588305473327637</v>
+        <v>0.272930383682251</v>
       </c>
       <c r="V51" t="n">
         <v>1</v>
@@ -7992,22 +7992,22 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.01002240180969238</v>
+        <v>0.009763479232788086</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.002004146575927734</v>
+        <v>0.002002716064453125</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2411892414093018</v>
+        <v>0.243690013885498</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01002240180969238</v>
+        <v>0.009763479232788086</v>
       </c>
       <c r="T52" t="n">
-        <v>0.002004146575927734</v>
+        <v>0.002002716064453125</v>
       </c>
       <c r="U52" t="n">
-        <v>0.2411892414093018</v>
+        <v>0.243690013885498</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
@@ -8140,18 +8140,18 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>0.3468019962310791</v>
+        <v>0.3512542247772217</v>
       </c>
       <c r="S53" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>0.3468019962310791</v>
+        <v>0.3512542247772217</v>
       </c>
       <c r="V53" t="n">
         <v>1</v>
@@ -8286,22 +8286,22 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.03876590728759766</v>
+        <v>0.03579854965209961</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.01001453399658203</v>
+        <v>0.04267525672912598</v>
       </c>
       <c r="R54" t="n">
-        <v>0.9555060863494873</v>
+        <v>1.051979780197144</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03876590728759766</v>
+        <v>0.03579854965209961</v>
       </c>
       <c r="T54" t="n">
-        <v>0.01001453399658203</v>
+        <v>0.04267525672912598</v>
       </c>
       <c r="U54" t="n">
-        <v>0.9555060863494873</v>
+        <v>1.051979780197144</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -8436,22 +8436,22 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.04814386367797852</v>
+        <v>0.04968881607055664</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.03989791870117188</v>
+        <v>0.04168796539306641</v>
       </c>
       <c r="R55" t="n">
-        <v>0.8842792510986328</v>
+        <v>0.8760395050048828</v>
       </c>
       <c r="S55" t="n">
-        <v>0.04814386367797852</v>
+        <v>0.04968881607055664</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03989791870117188</v>
+        <v>0.04168796539306641</v>
       </c>
       <c r="U55" t="n">
-        <v>0.8842792510986328</v>
+        <v>0.8760395050048828</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -8538,7 +8538,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CatBoost_r143_FULL</t>
+          <t>LightGBM_r42_FULL</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -8551,13 +8551,13 @@
         <v>0.9032258064516129</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8766666666666667</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="H56" t="n">
         <v>0.9032258064516129</v>
@@ -8566,16 +8566,16 @@
         <v>0.8634920634920634</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.2563290949668439</v>
+        <v>-0.2594625090068268</v>
       </c>
       <c r="M56" t="n">
-        <v>0.4175146192866976</v>
+        <v>0.4112778677968473</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
@@ -8584,18 +8584,18 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.004005193710327148</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>1.019612550735474</v>
+        <v>0.1422858238220215</v>
       </c>
       <c r="S56" t="n">
-        <v>0.004005193710327148</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>1.019612550735474</v>
+        <v>0.1422858238220215</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
@@ -8604,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="X56" t="n">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="Y56" t="n">
         <v>19</v>
@@ -8616,16 +8616,16 @@
         <v>1</v>
       </c>
       <c r="AB56" t="n">
-        <v>1186082</v>
+        <v>313680</v>
       </c>
       <c r="AC56" t="n">
-        <v>1186082</v>
+        <v>313680</v>
       </c>
       <c r="AD56" t="n">
-        <v>1186082</v>
+        <v>313680</v>
       </c>
       <c r="AE56" t="n">
-        <v>1186082</v>
+        <v>313680</v>
       </c>
       <c r="AF56" t="n">
         <v>0</v>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI56" t="inlineStr"/>
@@ -8646,12 +8646,12 @@
       </c>
       <c r="AK56" t="inlineStr">
         <is>
-          <t>{'iterations': 548, 'learning_rate': 0.06566144806528762, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6761016245166451, 'max_ctr_complexity': 2, 'one_hot_max_size': 10}</t>
+          <t>{'learning_rate': 0.07856777698860955, 'extra_trees': True, 'feature_fraction': 0.4601361323873807, 'min_data_in_leaf': 12, 'num_leaves': 198, 'num_boost_round': 313}</t>
         </is>
       </c>
       <c r="AL56" t="inlineStr">
         <is>
-          <t>{'iterations': 548}</t>
+          <t>{'num_boost_round': 313}</t>
         </is>
       </c>
       <c r="AM56" t="inlineStr">
@@ -8682,7 +8682,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LightGBM_r42_FULL</t>
+          <t>CatBoost_r143_FULL</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -8695,13 +8695,13 @@
         <v>0.9032258064516129</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H57" t="n">
         <v>0.9032258064516129</v>
@@ -8710,16 +8710,16 @@
         <v>0.8634920634920634</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.2594625090068268</v>
+        <v>-0.2563290949668439</v>
       </c>
       <c r="M57" t="n">
-        <v>0.4112778677968473</v>
+        <v>0.4175146192866976</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
@@ -8728,18 +8728,18 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>0.1434390544891357</v>
+        <v>1.097966909408569</v>
       </c>
       <c r="S57" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>0.1434390544891357</v>
+        <v>1.097966909408569</v>
       </c>
       <c r="V57" t="n">
         <v>1</v>
@@ -8748,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="Y57" t="n">
         <v>19</v>
@@ -8760,16 +8760,16 @@
         <v>1</v>
       </c>
       <c r="AB57" t="n">
-        <v>313680</v>
+        <v>1186082</v>
       </c>
       <c r="AC57" t="n">
-        <v>313680</v>
+        <v>1186082</v>
       </c>
       <c r="AD57" t="n">
-        <v>313680</v>
+        <v>1186082</v>
       </c>
       <c r="AE57" t="n">
-        <v>313680</v>
+        <v>1186082</v>
       </c>
       <c r="AF57" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr"/>
@@ -8790,12 +8790,12 @@
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.07856777698860955, 'extra_trees': True, 'feature_fraction': 0.4601361323873807, 'min_data_in_leaf': 12, 'num_leaves': 198, 'num_boost_round': 313}</t>
+          <t>{'iterations': 548, 'learning_rate': 0.06566144806528762, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6761016245166451, 'max_ctr_complexity': 2, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL57" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 313}</t>
+          <t>{'iterations': 548}</t>
         </is>
       </c>
       <c r="AM57" t="inlineStr">
@@ -8872,18 +8872,18 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.06410789489746094</v>
+        <v>0.06621098518371582</v>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>0.597970724105835</v>
+        <v>0.5331234931945801</v>
       </c>
       <c r="S58" t="n">
-        <v>0.06410789489746094</v>
+        <v>0.06621098518371582</v>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>0.597970724105835</v>
+        <v>0.5331234931945801</v>
       </c>
       <c r="V58" t="n">
         <v>1</v>
@@ -9018,22 +9018,22 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>0.003444910049438477</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>0.001746416091918945</v>
       </c>
       <c r="R59" t="n">
-        <v>2.100074529647827</v>
+        <v>2.145618200302124</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>0.003444910049438477</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>0.001746416091918945</v>
       </c>
       <c r="U59" t="n">
-        <v>2.100074529647827</v>
+        <v>2.145618200302124</v>
       </c>
       <c r="V59" t="n">
         <v>1</v>
@@ -9168,22 +9168,22 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.009179115295410156</v>
+        <v>0.01304125785827637</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2574975490570068</v>
+        <v>0.2682952880859375</v>
       </c>
       <c r="S60" t="n">
-        <v>0.009179115295410156</v>
+        <v>0.01304125785827637</v>
       </c>
       <c r="T60" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="U60" t="n">
-        <v>0.2574975490570068</v>
+        <v>0.2682952880859375</v>
       </c>
       <c r="V60" t="n">
         <v>1</v>
@@ -9318,22 +9318,22 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.05237436294555664</v>
+        <v>0.07748818397521973</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.04117393493652344</v>
+        <v>0.03437018394470215</v>
       </c>
       <c r="R61" t="n">
-        <v>0.7721469402313232</v>
+        <v>0.7357604503631592</v>
       </c>
       <c r="S61" t="n">
-        <v>0.05237436294555664</v>
+        <v>0.07748818397521973</v>
       </c>
       <c r="T61" t="n">
-        <v>0.04117393493652344</v>
+        <v>0.03437018394470215</v>
       </c>
       <c r="U61" t="n">
-        <v>0.7721469402313232</v>
+        <v>0.7357604503631592</v>
       </c>
       <c r="V61" t="n">
         <v>1</v>
@@ -9466,18 +9466,18 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.002002477645874023</v>
+        <v>0.002006053924560547</v>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>0.1167833805084229</v>
+        <v>0.1295249462127686</v>
       </c>
       <c r="S62" t="n">
-        <v>0.002002477645874023</v>
+        <v>0.002006053924560547</v>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>0.1167833805084229</v>
+        <v>0.1295249462127686</v>
       </c>
       <c r="V62" t="n">
         <v>1</v>
@@ -9612,22 +9612,22 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.01264643669128418</v>
+        <v>0.01176691055297852</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>6.730966091156006</v>
+        <v>6.758463144302368</v>
       </c>
       <c r="S63" t="n">
-        <v>0.01264643669128418</v>
+        <v>0.01176691055297852</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>6.730966091156006</v>
+        <v>6.758463144302368</v>
       </c>
       <c r="V63" t="n">
         <v>1</v>
@@ -9760,18 +9760,18 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0248262882232666</v>
+        <v>0.02357602119445801</v>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>0.3171136379241943</v>
+        <v>0.3425326347351074</v>
       </c>
       <c r="S64" t="n">
-        <v>0.0248262882232666</v>
+        <v>0.02357602119445801</v>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>0.3171136379241943</v>
+        <v>0.3425326347351074</v>
       </c>
       <c r="V64" t="n">
         <v>1</v>
@@ -9904,18 +9904,18 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.004496097564697266</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>1.185946941375732</v>
+        <v>1.20106315612793</v>
       </c>
       <c r="S65" t="n">
-        <v>0.004496097564697266</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>1.185946941375732</v>
+        <v>1.20106315612793</v>
       </c>
       <c r="V65" t="n">
         <v>1</v>
@@ -10002,7 +10002,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RandomForest_r15</t>
+          <t>RandomForest_r127</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -10015,13 +10015,13 @@
         <v>0.9032258064516129</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8133333333333332</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8342245989304813</v>
+        <v>0.8540031397174255</v>
       </c>
       <c r="H66" t="n">
         <v>0.9032258064516129</v>
@@ -10030,19 +10030,19 @@
         <v>0.8491452991452991</v>
       </c>
       <c r="J66" t="n">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.2549585018055335</v>
+        <v>-0.2645658153156887</v>
       </c>
       <c r="M66" t="n">
-        <v>0.4202489752503408</v>
+        <v>0.4011616105917338</v>
       </c>
       <c r="N66" t="n">
-        <v>0.8340400340400341</v>
+        <v>0.8143590206090207</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -10050,22 +10050,22 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.06453108787536621</v>
+        <v>0.06267237663269043</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.05603861808776855</v>
+        <v>0.03795576095581055</v>
       </c>
       <c r="R66" t="n">
-        <v>1.04034161567688</v>
+        <v>0.7625634670257568</v>
       </c>
       <c r="S66" t="n">
-        <v>0.06453108787536621</v>
+        <v>0.06267237663269043</v>
       </c>
       <c r="T66" t="n">
-        <v>0.05603861808776855</v>
+        <v>0.03795576095581055</v>
       </c>
       <c r="U66" t="n">
-        <v>1.04034161567688</v>
+        <v>0.7625634670257568</v>
       </c>
       <c r="V66" t="n">
         <v>1</v>
@@ -10074,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="X66" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Y66" t="n">
         <v>19</v>
@@ -10086,16 +10086,16 @@
         <v>1</v>
       </c>
       <c r="AB66" t="n">
-        <v>753476</v>
+        <v>588473</v>
       </c>
       <c r="AC66" t="n">
-        <v>753476</v>
+        <v>588473</v>
       </c>
       <c r="AD66" t="n">
-        <v>753476</v>
+        <v>588473</v>
       </c>
       <c r="AE66" t="n">
-        <v>753476</v>
+        <v>588473</v>
       </c>
       <c r="AF66" t="n">
         <v>0</v>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="AK66" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 36230, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 3}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 38572, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 5}</t>
         </is>
       </c>
       <c r="AL66" t="inlineStr">
@@ -10152,7 +10152,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RandomForest_r127</t>
+          <t>RandomForest_r15</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -10165,13 +10165,13 @@
         <v>0.9032258064516129</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8766666666666667</v>
+        <v>0.8133333333333332</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8540031397174255</v>
+        <v>0.8342245989304813</v>
       </c>
       <c r="H67" t="n">
         <v>0.9032258064516129</v>
@@ -10180,19 +10180,19 @@
         <v>0.8491452991452991</v>
       </c>
       <c r="J67" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="K67" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.2645658153156887</v>
+        <v>-0.2549585018055335</v>
       </c>
       <c r="M67" t="n">
-        <v>0.4011616105917338</v>
+        <v>0.4202489752503408</v>
       </c>
       <c r="N67" t="n">
-        <v>0.8143590206090207</v>
+        <v>0.8340400340400341</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -10200,22 +10200,22 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.06781315803527832</v>
+        <v>0.06529092788696289</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.05710196495056152</v>
+        <v>0.03974175453186035</v>
       </c>
       <c r="R67" t="n">
-        <v>0.928955078125</v>
+        <v>0.7092452049255371</v>
       </c>
       <c r="S67" t="n">
-        <v>0.06781315803527832</v>
+        <v>0.06529092788696289</v>
       </c>
       <c r="T67" t="n">
-        <v>0.05710196495056152</v>
+        <v>0.03974175453186035</v>
       </c>
       <c r="U67" t="n">
-        <v>0.928955078125</v>
+        <v>0.7092452049255371</v>
       </c>
       <c r="V67" t="n">
         <v>1</v>
@@ -10224,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="X67" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="n">
         <v>19</v>
@@ -10236,16 +10236,16 @@
         <v>1</v>
       </c>
       <c r="AB67" t="n">
-        <v>588473</v>
+        <v>753476</v>
       </c>
       <c r="AC67" t="n">
-        <v>588473</v>
+        <v>753476</v>
       </c>
       <c r="AD67" t="n">
-        <v>588473</v>
+        <v>753476</v>
       </c>
       <c r="AE67" t="n">
-        <v>588473</v>
+        <v>753476</v>
       </c>
       <c r="AF67" t="n">
         <v>0</v>
@@ -10266,7 +10266,7 @@
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 38572, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 5}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 36230, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 3}</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
@@ -10348,18 +10348,18 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.05157113075256348</v>
+        <v>0.05294704437255859</v>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>0.8508284091949463</v>
+        <v>0.821235179901123</v>
       </c>
       <c r="S68" t="n">
-        <v>0.05157113075256348</v>
+        <v>0.05294704437255859</v>
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>0.8508284091949463</v>
+        <v>0.821235179901123</v>
       </c>
       <c r="V68" t="n">
         <v>1</v>
@@ -10492,18 +10492,18 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.06436252593994141</v>
+        <v>0.06499052047729492</v>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
-        <v>0.5550169944763184</v>
+        <v>0.7374057769775391</v>
       </c>
       <c r="S69" t="n">
-        <v>0.06436252593994141</v>
+        <v>0.06499052047729492</v>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>0.5550169944763184</v>
+        <v>0.7374057769775391</v>
       </c>
       <c r="V69" t="n">
         <v>1</v>
@@ -10638,22 +10638,22 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.01230406761169434</v>
+        <v>0.009901046752929688</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.004005908966064453</v>
       </c>
       <c r="R70" t="n">
-        <v>0.216698169708252</v>
+        <v>0.233445405960083</v>
       </c>
       <c r="S70" t="n">
-        <v>0.01230406761169434</v>
+        <v>0.009901046752929688</v>
       </c>
       <c r="T70" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.004005908966064453</v>
       </c>
       <c r="U70" t="n">
-        <v>0.216698169708252</v>
+        <v>0.233445405960083</v>
       </c>
       <c r="V70" t="n">
         <v>1</v>
@@ -10786,18 +10786,18 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.003000259399414062</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
-        <v>0.1667444705963135</v>
+        <v>0.1756370067596436</v>
       </c>
       <c r="S71" t="n">
-        <v>0.003000259399414062</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>0.1667444705963135</v>
+        <v>0.1756370067596436</v>
       </c>
       <c r="V71" t="n">
         <v>1</v>
@@ -10932,22 +10932,22 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.01757025718688965</v>
+        <v>0.01503443717956543</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.00400853157043457</v>
+        <v>0.001836061477661133</v>
       </c>
       <c r="R72" t="n">
-        <v>0.3419513702392578</v>
+        <v>0.3572318553924561</v>
       </c>
       <c r="S72" t="n">
-        <v>0.01757025718688965</v>
+        <v>0.01503443717956543</v>
       </c>
       <c r="T72" t="n">
-        <v>0.00400853157043457</v>
+        <v>0.001836061477661133</v>
       </c>
       <c r="U72" t="n">
-        <v>0.3419513702392578</v>
+        <v>0.3572318553924561</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
@@ -11082,22 +11082,22 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.007874488830566406</v>
+        <v>0.008014678955078125</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>1.9633948802948</v>
+        <v>2.014571189880371</v>
       </c>
       <c r="S73" t="n">
-        <v>0.007874488830566406</v>
+        <v>0.008014678955078125</v>
       </c>
       <c r="T73" t="n">
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>1.9633948802948</v>
+        <v>2.014571189880371</v>
       </c>
       <c r="V73" t="n">
         <v>1</v>
@@ -11232,22 +11232,22 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.06934022903442383</v>
+        <v>0.06251239776611328</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.04695963859558105</v>
+        <v>0.05961179733276367</v>
       </c>
       <c r="R74" t="n">
-        <v>7.315873622894287</v>
+        <v>7.531886339187622</v>
       </c>
       <c r="S74" t="n">
-        <v>0.002997398376464844</v>
+        <v>0.002875804901123047</v>
       </c>
       <c r="T74" t="n">
-        <v>0.001042604446411133</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>0.1243541240692139</v>
+        <v>0.147050142288208</v>
       </c>
       <c r="V74" t="n">
         <v>2</v>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>['NeuralNetFastAI_r187', 'NeuralNetTorch_r121', 'RandomForest_r16', 'LightGBMLarge']</t>
+          <t>['NeuralNetTorch_r121', 'NeuralNetFastAI_r187', 'LightGBMLarge', 'RandomForest_r16']</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr"/>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="AS74" t="inlineStr">
         <is>
-          <t>['NeuralNetFastAI_r187', 'NeuralNetTorch_r121', 'RandomForest_r16', 'LightGBMLarge']</t>
+          <t>['NeuralNetTorch_r121', 'NeuralNetFastAI_r187', 'LightGBMLarge', 'RandomForest_r16']</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr">
@@ -11396,18 +11396,18 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.002504348754882812</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>0.3403749465942383</v>
+        <v>0.3682811260223389</v>
       </c>
       <c r="S75" t="n">
-        <v>0.002504348754882812</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>0.3403749465942383</v>
+        <v>0.3682811260223389</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -11542,22 +11542,22 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.005000591278076172</v>
+        <v>0.004998207092285156</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.0004599094390869141</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0.3283092975616455</v>
+        <v>0.3485541343688965</v>
       </c>
       <c r="S76" t="n">
-        <v>0.005000591278076172</v>
+        <v>0.004998207092285156</v>
       </c>
       <c r="T76" t="n">
-        <v>0.0004599094390869141</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>0.3283092975616455</v>
+        <v>0.3485541343688965</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -11692,22 +11692,22 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.004005908966064453</v>
+        <v>0.005153417587280273</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>1.396710395812988</v>
+        <v>1.399544477462769</v>
       </c>
       <c r="S77" t="n">
-        <v>0.004005908966064453</v>
+        <v>0.005153417587280273</v>
       </c>
       <c r="T77" t="n">
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>1.396710395812988</v>
+        <v>1.399544477462769</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -11842,22 +11842,22 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.01016497611999512</v>
+        <v>0.01191282272338867</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>5.882737159729004</v>
+        <v>5.928356409072876</v>
       </c>
       <c r="S78" t="n">
-        <v>0.01016497611999512</v>
+        <v>0.01191282272338867</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>5.882737159729004</v>
+        <v>5.928356409072876</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -11992,22 +11992,22 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.02004313468933105</v>
+        <v>0.01877236366271973</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.002003192901611328</v>
       </c>
       <c r="R79" t="n">
-        <v>0.45977783203125</v>
+        <v>0.4941768646240234</v>
       </c>
       <c r="S79" t="n">
-        <v>0.02004313468933105</v>
+        <v>0.01877236366271973</v>
       </c>
       <c r="T79" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.002003192901611328</v>
       </c>
       <c r="U79" t="n">
-        <v>0.45977783203125</v>
+        <v>0.4941768646240234</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.003998279571533203</v>
+        <v>0.004653692245483398</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.01537394523620605</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>0.8662686347961426</v>
+        <v>0.9125552177429199</v>
       </c>
       <c r="S80" t="n">
-        <v>0.003998279571533203</v>
+        <v>0.004653692245483398</v>
       </c>
       <c r="T80" t="n">
-        <v>0.01537394523620605</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>0.8662686347961426</v>
+        <v>0.9125552177429199</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -12292,22 +12292,22 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.00230860710144043</v>
+        <v>0.007259607315063477</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.003001928329467773</v>
       </c>
       <c r="R81" t="n">
-        <v>0.2705683708190918</v>
+        <v>0.2729015350341797</v>
       </c>
       <c r="S81" t="n">
-        <v>0.00230860710144043</v>
+        <v>0.007259607315063477</v>
       </c>
       <c r="T81" t="n">
-        <v>0.002005815505981445</v>
+        <v>0.003001928329467773</v>
       </c>
       <c r="U81" t="n">
-        <v>0.2705683708190918</v>
+        <v>0.2729015350341797</v>
       </c>
       <c r="V81" t="n">
         <v>1</v>
@@ -12442,22 +12442,22 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.004639387130737305</v>
+        <v>0.004893779754638672</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>0.6712262630462646</v>
+        <v>0.6712403297424316</v>
       </c>
       <c r="S82" t="n">
-        <v>0.004639387130737305</v>
+        <v>0.004893779754638672</v>
       </c>
       <c r="T82" t="n">
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>0.6712262630462646</v>
+        <v>0.6712403297424316</v>
       </c>
       <c r="V82" t="n">
         <v>1</v>
@@ -12592,22 +12592,22 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.004737377166748047</v>
+        <v>0.006014347076416016</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.001999378204345703</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>1.298351764678955</v>
+        <v>1.314381837844849</v>
       </c>
       <c r="S83" t="n">
-        <v>0.004737377166748047</v>
+        <v>0.006014347076416016</v>
       </c>
       <c r="T83" t="n">
-        <v>0.001999378204345703</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>1.298351764678955</v>
+        <v>1.314381837844849</v>
       </c>
       <c r="V83" t="n">
         <v>1</v>
@@ -12740,18 +12740,18 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.005003929138183594</v>
+        <v>0.006016016006469727</v>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="n">
-        <v>0.1556851863861084</v>
+        <v>0.1527371406555176</v>
       </c>
       <c r="S84" t="n">
-        <v>0.005003929138183594</v>
+        <v>0.006016016006469727</v>
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>0.1556851863861084</v>
+        <v>0.1527371406555176</v>
       </c>
       <c r="V84" t="n">
         <v>1</v>
@@ -12886,22 +12886,22 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.003559350967407227</v>
+        <v>0.005433559417724609</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.0148167610168457</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0.3501121997833252</v>
+        <v>0.3497581481933594</v>
       </c>
       <c r="S85" t="n">
-        <v>0.003559350967407227</v>
+        <v>0.005433559417724609</v>
       </c>
       <c r="T85" t="n">
-        <v>0.0148167610168457</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>0.3501121997833252</v>
+        <v>0.3497581481933594</v>
       </c>
       <c r="V85" t="n">
         <v>1</v>
@@ -13036,22 +13036,22 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.00469970703125</v>
+        <v>0.006054401397705078</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.002560615539550781</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>0.4523837566375732</v>
+        <v>0.4476418495178223</v>
       </c>
       <c r="S86" t="n">
-        <v>0.00469970703125</v>
+        <v>0.006054401397705078</v>
       </c>
       <c r="T86" t="n">
-        <v>0.002560615539550781</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>0.4523837566375732</v>
+        <v>0.4476418495178223</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
@@ -13138,7 +13138,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>LightGBM_r42</t>
+          <t>CatBoost_r143</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -13148,37 +13148,37 @@
         <v>0.9266666666666667</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7533333333333333</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7232142857142857</v>
+        <v>0.7566718995290425</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I87" t="n">
         <v>0.7751683501683501</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K87" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.3132696371825587</v>
+        <v>-0.3389269637863984</v>
       </c>
       <c r="M87" t="n">
-        <v>0.3071696598064415</v>
+        <v>0.2594649137978824</v>
       </c>
       <c r="N87" t="n">
-        <v>0.7683096553500965</v>
+        <v>0.9005419927294928</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -13186,22 +13186,22 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.003999948501586914</v>
+        <v>0.004010200500488281</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>0.3708548545837402</v>
+        <v>1.867667198181152</v>
       </c>
       <c r="S87" t="n">
-        <v>0.003999948501586914</v>
+        <v>0.004010200500488281</v>
       </c>
       <c r="T87" t="n">
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>0.3708548545837402</v>
+        <v>1.867667198181152</v>
       </c>
       <c r="V87" t="n">
         <v>1</v>
@@ -13210,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="X87" t="n">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="Y87" t="n">
         <v>19</v>
@@ -13222,16 +13222,16 @@
         <v>1</v>
       </c>
       <c r="AB87" t="n">
-        <v>285880</v>
+        <v>1222190</v>
       </c>
       <c r="AC87" t="n">
-        <v>285880</v>
+        <v>1222190</v>
       </c>
       <c r="AD87" t="n">
-        <v>285880</v>
+        <v>1222190</v>
       </c>
       <c r="AE87" t="n">
-        <v>285880</v>
+        <v>1222190</v>
       </c>
       <c r="AF87" t="n">
         <v>0</v>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr"/>
@@ -13252,12 +13252,12 @@
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.07856777698860955, 'extra_trees': True, 'feature_fraction': 0.4601361323873807, 'min_data_in_leaf': 12, 'num_leaves': 198}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.06566144806528762, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6761016245166451, 'max_ctr_complexity': 2, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL87" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 313}</t>
+          <t>{'iterations': 548}</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
@@ -13288,7 +13288,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CatBoost_r143</t>
+          <t>LightGBM_r42</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -13298,37 +13298,37 @@
         <v>0.9266666666666667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7566718995290425</v>
+        <v>0.7232142857142857</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="I88" t="n">
         <v>0.7751683501683501</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="K88" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.3389269637863984</v>
+        <v>-0.3132696371825587</v>
       </c>
       <c r="M88" t="n">
-        <v>0.2594649137978824</v>
+        <v>0.3071696598064415</v>
       </c>
       <c r="N88" t="n">
-        <v>0.9005419927294928</v>
+        <v>0.7683096553500965</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -13336,22 +13336,22 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.004766464233398438</v>
+        <v>0.005752086639404297</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01570010185241699</v>
+        <v>0.00200343132019043</v>
       </c>
       <c r="R88" t="n">
-        <v>1.867546796798706</v>
+        <v>0.3648233413696289</v>
       </c>
       <c r="S88" t="n">
-        <v>0.004766464233398438</v>
+        <v>0.005752086639404297</v>
       </c>
       <c r="T88" t="n">
-        <v>0.01570010185241699</v>
+        <v>0.00200343132019043</v>
       </c>
       <c r="U88" t="n">
-        <v>1.867546796798706</v>
+        <v>0.3648233413696289</v>
       </c>
       <c r="V88" t="n">
         <v>1</v>
@@ -13360,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="X88" t="n">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="Y88" t="n">
         <v>19</v>
@@ -13372,16 +13372,16 @@
         <v>1</v>
       </c>
       <c r="AB88" t="n">
-        <v>1222190</v>
+        <v>285880</v>
       </c>
       <c r="AC88" t="n">
-        <v>1222190</v>
+        <v>285880</v>
       </c>
       <c r="AD88" t="n">
-        <v>1222190</v>
+        <v>285880</v>
       </c>
       <c r="AE88" t="n">
-        <v>1222190</v>
+        <v>285880</v>
       </c>
       <c r="AF88" t="n">
         <v>0</v>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="AH88" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI88" t="inlineStr"/>
@@ -13402,12 +13402,12 @@
       </c>
       <c r="AK88" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.06566144806528762, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6761016245166451, 'max_ctr_complexity': 2, 'one_hot_max_size': 10}</t>
+          <t>{'learning_rate': 0.07856777698860955, 'extra_trees': True, 'feature_fraction': 0.4601361323873807, 'min_data_in_leaf': 12, 'num_leaves': 198}</t>
         </is>
       </c>
       <c r="AL88" t="inlineStr">
         <is>
-          <t>{'iterations': 548}</t>
+          <t>{'num_boost_round': 313}</t>
         </is>
       </c>
       <c r="AM88" t="inlineStr">
@@ -13486,22 +13486,22 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.006999731063842773</v>
+        <v>0.007998943328857422</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>0.002311944961547852</v>
       </c>
       <c r="R89" t="n">
-        <v>2.9714515209198</v>
+        <v>3.0284264087677</v>
       </c>
       <c r="S89" t="n">
-        <v>0.006999731063842773</v>
+        <v>0.007998943328857422</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>0.002311944961547852</v>
       </c>
       <c r="U89" t="n">
-        <v>2.9714515209198</v>
+        <v>3.0284264087677</v>
       </c>
       <c r="V89" t="n">
         <v>1</v>
@@ -13634,18 +13634,18 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.01254963874816895</v>
+        <v>0.01346588134765625</v>
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
-        <v>0.89388108253479</v>
+        <v>0.9180223941802979</v>
       </c>
       <c r="S90" t="n">
-        <v>0.01254963874816895</v>
+        <v>0.01346588134765625</v>
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>0.89388108253479</v>
+        <v>0.9180223941802979</v>
       </c>
       <c r="V90" t="n">
         <v>1</v>
@@ -13778,18 +13778,18 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.01264309883117676</v>
+        <v>0.01479792594909668</v>
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
-        <v>1.398282766342163</v>
+        <v>1.46017050743103</v>
       </c>
       <c r="S91" t="n">
-        <v>0.01264309883117676</v>
+        <v>0.01479792594909668</v>
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>1.398282766342163</v>
+        <v>1.46017050743103</v>
       </c>
       <c r="V91" t="n">
         <v>1</v>
@@ -13922,18 +13922,18 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.06670522689819336</v>
+        <v>0.06436586380004883</v>
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="n">
-        <v>0.8367946147918701</v>
+        <v>0.7922399044036865</v>
       </c>
       <c r="S92" t="n">
-        <v>0.06670522689819336</v>
+        <v>0.06436586380004883</v>
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>0.8367946147918701</v>
+        <v>0.7922399044036865</v>
       </c>
       <c r="V92" t="n">
         <v>1</v>
@@ -14068,22 +14068,22 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.01264667510986328</v>
+        <v>0.009771347045898438</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.02026987075805664</v>
+        <v>0.00775146484375</v>
       </c>
       <c r="R93" t="n">
-        <v>1.68087363243103</v>
+        <v>1.738124370574951</v>
       </c>
       <c r="S93" t="n">
-        <v>0.01264667510986328</v>
+        <v>0.009771347045898438</v>
       </c>
       <c r="T93" t="n">
-        <v>0.02026987075805664</v>
+        <v>0.00775146484375</v>
       </c>
       <c r="U93" t="n">
-        <v>1.68087363243103</v>
+        <v>1.738124370574951</v>
       </c>
       <c r="V93" t="n">
         <v>1</v>
@@ -14218,22 +14218,22 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.01260876655578613</v>
+        <v>0.0134429931640625</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007751941680908203</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>1.124095678329468</v>
+        <v>1.186649322509766</v>
       </c>
       <c r="S94" t="n">
-        <v>0.01260876655578613</v>
+        <v>0.0134429931640625</v>
       </c>
       <c r="T94" t="n">
-        <v>0.007751941680908203</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>1.124095678329468</v>
+        <v>1.186649322509766</v>
       </c>
       <c r="V94" t="n">
         <v>1</v>
@@ -14368,22 +14368,22 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.05058622360229492</v>
+        <v>0.05127668380737305</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.03997945785522461</v>
+        <v>0.05326342582702637</v>
       </c>
       <c r="R95" t="n">
-        <v>1.152337789535522</v>
+        <v>0.9050202369689941</v>
       </c>
       <c r="S95" t="n">
-        <v>0.05058622360229492</v>
+        <v>0.05127668380737305</v>
       </c>
       <c r="T95" t="n">
-        <v>0.03997945785522461</v>
+        <v>0.05326342582702637</v>
       </c>
       <c r="U95" t="n">
-        <v>1.152337789535522</v>
+        <v>0.9050202369689941</v>
       </c>
       <c r="V95" t="n">
         <v>1</v>
@@ -14518,22 +14518,22 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.06650328636169434</v>
+        <v>0.06645393371582031</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.03876948356628418</v>
+        <v>0.04036283493041992</v>
       </c>
       <c r="R96" t="n">
-        <v>0.5587587356567383</v>
+        <v>0.5418205261230469</v>
       </c>
       <c r="S96" t="n">
-        <v>0.06650328636169434</v>
+        <v>0.06645393371582031</v>
       </c>
       <c r="T96" t="n">
-        <v>0.03876948356628418</v>
+        <v>0.04036283493041992</v>
       </c>
       <c r="U96" t="n">
-        <v>0.5587587356567383</v>
+        <v>0.5418205261230469</v>
       </c>
       <c r="V96" t="n">
         <v>1</v>
@@ -14668,22 +14668,22 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.004824161529541016</v>
+        <v>0.005784273147583008</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>0.3715295791625977</v>
+        <v>0.3918004035949707</v>
       </c>
       <c r="S97" t="n">
-        <v>0.004824161529541016</v>
+        <v>0.005784273147583008</v>
       </c>
       <c r="T97" t="n">
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>0.3715295791625977</v>
+        <v>0.3918004035949707</v>
       </c>
       <c r="V97" t="n">
         <v>1</v>
@@ -14818,22 +14818,22 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0242154598236084</v>
+        <v>0.02535724639892578</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>1.241557121276855</v>
+        <v>1.454111814498901</v>
       </c>
       <c r="S98" t="n">
-        <v>0.0242154598236084</v>
+        <v>0.02535724639892578</v>
       </c>
       <c r="T98" t="n">
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>1.241557121276855</v>
+        <v>1.454111814498901</v>
       </c>
       <c r="V98" t="n">
         <v>1</v>
@@ -14966,18 +14966,18 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0641169548034668</v>
+        <v>0.06625056266784668</v>
       </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>0.5207693576812744</v>
+        <v>0.5318803787231445</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0641169548034668</v>
+        <v>0.06625056266784668</v>
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>0.5207693576812744</v>
+        <v>0.5318803787231445</v>
       </c>
       <c r="V99" t="n">
         <v>1</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.01538729667663574</v>
+        <v>0.01531863212585449</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.0160222053527832</v>
+        <v>0.0156714916229248</v>
       </c>
       <c r="R100" t="n">
-        <v>0.5187692642211914</v>
+        <v>0.5349514484405518</v>
       </c>
       <c r="S100" t="n">
-        <v>0.01538729667663574</v>
+        <v>0.01531863212585449</v>
       </c>
       <c r="T100" t="n">
-        <v>0.0160222053527832</v>
+        <v>0.0156714916229248</v>
       </c>
       <c r="U100" t="n">
-        <v>0.5187692642211914</v>
+        <v>0.5349514484405518</v>
       </c>
       <c r="V100" t="n">
         <v>1</v>
@@ -15262,22 +15262,22 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.06757235527038574</v>
+        <v>0.06635904312133789</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.03863000869750977</v>
+        <v>0.03754067420959473</v>
       </c>
       <c r="R101" t="n">
-        <v>0.6520094871520996</v>
+        <v>0.5681076049804688</v>
       </c>
       <c r="S101" t="n">
-        <v>0.06757235527038574</v>
+        <v>0.06635904312133789</v>
       </c>
       <c r="T101" t="n">
-        <v>0.03863000869750977</v>
+        <v>0.03754067420959473</v>
       </c>
       <c r="U101" t="n">
-        <v>0.6520094871520996</v>
+        <v>0.5681076049804688</v>
       </c>
       <c r="V101" t="n">
         <v>1</v>
@@ -15410,18 +15410,18 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.01457548141479492</v>
+        <v>0.01176333427429199</v>
       </c>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="n">
-        <v>0.6398000717163086</v>
+        <v>0.6641988754272461</v>
       </c>
       <c r="S102" t="n">
-        <v>0.01457548141479492</v>
+        <v>0.01176333427429199</v>
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="n">
-        <v>0.6398000717163086</v>
+        <v>0.6641988754272461</v>
       </c>
       <c r="V102" t="n">
         <v>1</v>
@@ -15556,22 +15556,22 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>0.01052451133728027</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.00601959228515625</v>
+        <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>0.7960727214813232</v>
+        <v>0.7879354953765869</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>0.01052451133728027</v>
       </c>
       <c r="T103" t="n">
-        <v>0.00601959228515625</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
-        <v>0.7960727214813232</v>
+        <v>0.7879354953765869</v>
       </c>
       <c r="V103" t="n">
         <v>1</v>
@@ -15706,22 +15706,22 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.06309151649475098</v>
+        <v>0.0545964241027832</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.03964638710021973</v>
+        <v>0.03790664672851562</v>
       </c>
       <c r="R104" t="n">
-        <v>0.6966664791107178</v>
+        <v>0.5389244556427002</v>
       </c>
       <c r="S104" t="n">
-        <v>0.06309151649475098</v>
+        <v>0.0545964241027832</v>
       </c>
       <c r="T104" t="n">
-        <v>0.03964638710021973</v>
+        <v>0.03790664672851562</v>
       </c>
       <c r="U104" t="n">
-        <v>0.6966664791107178</v>
+        <v>0.5389244556427002</v>
       </c>
       <c r="V104" t="n">
         <v>1</v>
@@ -15856,22 +15856,22 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.006012916564941406</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.002007722854614258</v>
       </c>
       <c r="R105" t="n">
-        <v>1.082730293273926</v>
+        <v>1.103950262069702</v>
       </c>
       <c r="S105" t="n">
-        <v>0.006012916564941406</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="T105" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.002007722854614258</v>
       </c>
       <c r="U105" t="n">
-        <v>1.082730293273926</v>
+        <v>1.103950262069702</v>
       </c>
       <c r="V105" t="n">
         <v>1</v>
@@ -16006,22 +16006,22 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.006678104400634766</v>
+        <v>0.005515098571777344</v>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>1.568605422973633</v>
+        <v>1.581259250640869</v>
       </c>
       <c r="S106" t="n">
-        <v>0.006678104400634766</v>
+        <v>0.005515098571777344</v>
       </c>
       <c r="T106" t="n">
         <v>0</v>
       </c>
       <c r="U106" t="n">
-        <v>1.568605422973633</v>
+        <v>1.581259250640869</v>
       </c>
       <c r="V106" t="n">
         <v>1</v>
@@ -16158,14 +16158,14 @@
       </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>0.258091926574707</v>
+        <v>0.2377414703369141</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="n">
-        <v>0.258091926574707</v>
+        <v>0.2377414703369141</v>
       </c>
       <c r="V107" t="n">
         <v>1</v>
@@ -16300,22 +16300,22 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.01184225082397461</v>
+        <v>0.01202249526977539</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.0157020092010498</v>
+        <v>0.006011247634887695</v>
       </c>
       <c r="R108" t="n">
-        <v>0.8661665916442871</v>
+        <v>0.9296882152557373</v>
       </c>
       <c r="S108" t="n">
-        <v>0.01184225082397461</v>
+        <v>0.01202249526977539</v>
       </c>
       <c r="T108" t="n">
-        <v>0.0157020092010498</v>
+        <v>0.006011247634887695</v>
       </c>
       <c r="U108" t="n">
-        <v>0.8661665916442871</v>
+        <v>0.9296882152557373</v>
       </c>
       <c r="V108" t="n">
         <v>1</v>
@@ -16450,22 +16450,22 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0.01003456115722656</v>
+        <v>0.02290821075439453</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.0160057544708252</v>
+        <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>28.82154679298401</v>
+        <v>28.71670603752136</v>
       </c>
       <c r="S109" t="n">
-        <v>0.01003456115722656</v>
+        <v>0.02290821075439453</v>
       </c>
       <c r="T109" t="n">
-        <v>0.0160057544708252</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
-        <v>28.82154679298401</v>
+        <v>28.71670603752136</v>
       </c>
       <c r="V109" t="n">
         <v>1</v>
@@ -16600,22 +16600,22 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0.006010532379150391</v>
+        <v>0.006017446517944336</v>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
       </c>
       <c r="R110" t="n">
-        <v>2.464961528778076</v>
+        <v>2.414390325546265</v>
       </c>
       <c r="S110" t="n">
-        <v>0.006010532379150391</v>
+        <v>0.006017446517944336</v>
       </c>
       <c r="T110" t="n">
         <v>0</v>
       </c>
       <c r="U110" t="n">
-        <v>2.464961528778076</v>
+        <v>2.414390325546265</v>
       </c>
       <c r="V110" t="n">
         <v>1</v>
@@ -16750,22 +16750,22 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0.01409006118774414</v>
+        <v>0.004055261611938477</v>
       </c>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>0.00234222412109375</v>
       </c>
       <c r="R111" t="n">
-        <v>3.200065851211548</v>
+        <v>3.210762023925781</v>
       </c>
       <c r="S111" t="n">
-        <v>0.01409006118774414</v>
+        <v>0.004055261611938477</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>0.00234222412109375</v>
       </c>
       <c r="U111" t="n">
-        <v>3.200065851211548</v>
+        <v>3.210762023925781</v>
       </c>
       <c r="V111" t="n">
         <v>1</v>
@@ -16900,22 +16900,22 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>0.006014585494995117</v>
+        <v>0.006319761276245117</v>
       </c>
       <c r="Q112" t="n">
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>0.3943431377410889</v>
+        <v>0.4492149353027344</v>
       </c>
       <c r="S112" t="n">
-        <v>0.006014585494995117</v>
+        <v>0.006319761276245117</v>
       </c>
       <c r="T112" t="n">
         <v>0</v>
       </c>
       <c r="U112" t="n">
-        <v>0.3943431377410889</v>
+        <v>0.4492149353027344</v>
       </c>
       <c r="V112" t="n">
         <v>1</v>
@@ -17048,18 +17048,18 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0.01659917831420898</v>
+        <v>0.001311540603637695</v>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="n">
-        <v>1.309111833572388</v>
+        <v>1.328299283981323</v>
       </c>
       <c r="S113" t="n">
-        <v>0.01659917831420898</v>
+        <v>0.001311540603637695</v>
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>1.309111833572388</v>
+        <v>1.328299283981323</v>
       </c>
       <c r="V113" t="n">
         <v>1</v>
@@ -17192,18 +17192,18 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.01303839683532715</v>
+        <v>0.0118408203125</v>
       </c>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>0.3078675270080566</v>
+        <v>0.3318536281585693</v>
       </c>
       <c r="S114" t="n">
-        <v>0.01303839683532715</v>
+        <v>0.0118408203125</v>
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>0.3078675270080566</v>
+        <v>0.3318536281585693</v>
       </c>
       <c r="V114" t="n">
         <v>1</v>
@@ -17338,22 +17338,22 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0.06900477409362793</v>
+        <v>0.06657719612121582</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.06061792373657227</v>
+        <v>0.1430103778839111</v>
       </c>
       <c r="R115" t="n">
-        <v>0.7664923667907715</v>
+        <v>0.6749682426452637</v>
       </c>
       <c r="S115" t="n">
-        <v>0.06900477409362793</v>
+        <v>0.06657719612121582</v>
       </c>
       <c r="T115" t="n">
-        <v>0.06061792373657227</v>
+        <v>0.1430103778839111</v>
       </c>
       <c r="U115" t="n">
-        <v>0.7664923667907715</v>
+        <v>0.6749682426452637</v>
       </c>
       <c r="V115" t="n">
         <v>1</v>
@@ -17488,22 +17488,22 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.005998611450195312</v>
+        <v>0.006299495697021484</v>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>1.551685094833374</v>
+        <v>1.537391662597656</v>
       </c>
       <c r="S116" t="n">
-        <v>0.005998611450195312</v>
+        <v>0.006299495697021484</v>
       </c>
       <c r="T116" t="n">
         <v>0</v>
       </c>
       <c r="U116" t="n">
-        <v>1.551685094833374</v>
+        <v>1.537391662597656</v>
       </c>
       <c r="V116" t="n">
         <v>1</v>
@@ -17636,18 +17636,18 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.003842353820800781</v>
+        <v>0.004007339477539062</v>
       </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="n">
-        <v>0.1661002635955811</v>
+        <v>0.1683721542358398</v>
       </c>
       <c r="S117" t="n">
-        <v>0.003842353820800781</v>
+        <v>0.004007339477539062</v>
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>0.1661002635955811</v>
+        <v>0.1683721542358398</v>
       </c>
       <c r="V117" t="n">
         <v>1</v>
@@ -17782,22 +17782,22 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.008140802383422852</v>
+        <v>0.009769916534423828</v>
       </c>
       <c r="Q118" t="n">
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>0.4190645217895508</v>
+        <v>0.4388883113861084</v>
       </c>
       <c r="S118" t="n">
-        <v>0.008140802383422852</v>
+        <v>0.009769916534423828</v>
       </c>
       <c r="T118" t="n">
         <v>0</v>
       </c>
       <c r="U118" t="n">
-        <v>0.4190645217895508</v>
+        <v>0.4388883113861084</v>
       </c>
       <c r="V118" t="n">
         <v>1</v>
@@ -17932,22 +17932,22 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.06416893005371094</v>
+        <v>0.06711339950561523</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.04117846488952637</v>
+        <v>0.06973934173583984</v>
       </c>
       <c r="R119" t="n">
-        <v>0.7641005516052246</v>
+        <v>0.8791811466217041</v>
       </c>
       <c r="S119" t="n">
-        <v>0.06416893005371094</v>
+        <v>0.06711339950561523</v>
       </c>
       <c r="T119" t="n">
-        <v>0.04117846488952637</v>
+        <v>0.06973934173583984</v>
       </c>
       <c r="U119" t="n">
-        <v>0.7641005516052246</v>
+        <v>0.8791811466217041</v>
       </c>
       <c r="V119" t="n">
         <v>1</v>
@@ -18082,22 +18082,22 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.01405048370361328</v>
+        <v>0.01484489440917969</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.007749795913696289</v>
+        <v>0.006007194519042969</v>
       </c>
       <c r="R120" t="n">
-        <v>3.136882781982422</v>
+        <v>3.281175136566162</v>
       </c>
       <c r="S120" t="n">
-        <v>0.01405048370361328</v>
+        <v>0.01484489440917969</v>
       </c>
       <c r="T120" t="n">
-        <v>0.007749795913696289</v>
+        <v>0.006007194519042969</v>
       </c>
       <c r="U120" t="n">
-        <v>3.136882781982422</v>
+        <v>3.281175136566162</v>
       </c>
       <c r="V120" t="n">
         <v>1</v>
@@ -18232,22 +18232,22 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.01458573341369629</v>
+        <v>0.01452946662902832</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.01448726654052734</v>
+        <v>0</v>
       </c>
       <c r="R121" t="n">
-        <v>2.094012260437012</v>
+        <v>2.238647222518921</v>
       </c>
       <c r="S121" t="n">
-        <v>0.01458573341369629</v>
+        <v>0.01452946662902832</v>
       </c>
       <c r="T121" t="n">
-        <v>0.01448726654052734</v>
+        <v>0</v>
       </c>
       <c r="U121" t="n">
-        <v>2.094012260437012</v>
+        <v>2.238647222518921</v>
       </c>
       <c r="V121" t="n">
         <v>1</v>
@@ -18380,18 +18380,18 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.06829237937927246</v>
+        <v>0.07419824600219727</v>
       </c>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="n">
-        <v>0.5913102626800537</v>
+        <v>0.5601687431335449</v>
       </c>
       <c r="S122" t="n">
-        <v>0.06829237937927246</v>
+        <v>0.07419824600219727</v>
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="n">
-        <v>0.5913102626800537</v>
+        <v>0.5601687431335449</v>
       </c>
       <c r="V122" t="n">
         <v>1</v>
@@ -18526,22 +18526,22 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.01319408416748047</v>
+        <v>0.01342535018920898</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.009035110473632812</v>
+        <v>0.01690101623535156</v>
       </c>
       <c r="R123" t="n">
-        <v>1.564475059509277</v>
+        <v>1.594388008117676</v>
       </c>
       <c r="S123" t="n">
-        <v>0.01319408416748047</v>
+        <v>0.01342535018920898</v>
       </c>
       <c r="T123" t="n">
-        <v>0.009035110473632812</v>
+        <v>0.01690101623535156</v>
       </c>
       <c r="U123" t="n">
-        <v>1.564475059509277</v>
+        <v>1.594388008117676</v>
       </c>
       <c r="V123" t="n">
         <v>1</v>
@@ -18676,22 +18676,22 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0.006014585494995117</v>
+        <v>0.004008054733276367</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.002005577087402344</v>
+        <v>0</v>
       </c>
       <c r="R124" t="n">
-        <v>0.8866617679595947</v>
+        <v>0.9073421955108643</v>
       </c>
       <c r="S124" t="n">
-        <v>0.006014585494995117</v>
+        <v>0.004008054733276367</v>
       </c>
       <c r="T124" t="n">
-        <v>0.002005577087402344</v>
+        <v>0</v>
       </c>
       <c r="U124" t="n">
-        <v>0.8866617679595947</v>
+        <v>0.9073421955108643</v>
       </c>
       <c r="V124" t="n">
         <v>1</v>
@@ -18826,22 +18826,22 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0.01162004470825195</v>
+        <v>0.01199913024902344</v>
       </c>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>0.01610589027404785</v>
       </c>
       <c r="R125" t="n">
-        <v>0.9869246482849121</v>
+        <v>1.00345516204834</v>
       </c>
       <c r="S125" t="n">
-        <v>0.01162004470825195</v>
+        <v>0.01199913024902344</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>0.01610589027404785</v>
       </c>
       <c r="U125" t="n">
-        <v>0.9869246482849121</v>
+        <v>1.00345516204834</v>
       </c>
       <c r="V125" t="n">
         <v>1</v>
@@ -18974,18 +18974,18 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0.0155479907989502</v>
+        <v>0.0136253833770752</v>
       </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="n">
-        <v>0.2523000240325928</v>
+        <v>0.2600054740905762</v>
       </c>
       <c r="S126" t="n">
-        <v>0.0155479907989502</v>
+        <v>0.0136253833770752</v>
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="n">
-        <v>0.2523000240325928</v>
+        <v>0.2600054740905762</v>
       </c>
       <c r="V126" t="n">
         <v>1</v>
@@ -19118,18 +19118,18 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0.01065206527709961</v>
+        <v>0.005005598068237305</v>
       </c>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="n">
-        <v>1.173131704330444</v>
+        <v>1.238624811172485</v>
       </c>
       <c r="S127" t="n">
-        <v>0.01065206527709961</v>
+        <v>0.005005598068237305</v>
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="n">
-        <v>1.173131704330444</v>
+        <v>1.238624811172485</v>
       </c>
       <c r="V127" t="n">
         <v>1</v>
@@ -19264,22 +19264,22 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>0.01666069030761719</v>
+        <v>0.008018255233764648</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.003659963607788086</v>
+        <v>0.009677648544311523</v>
       </c>
       <c r="R128" t="n">
-        <v>1.238656044006348</v>
+        <v>1.255085468292236</v>
       </c>
       <c r="S128" t="n">
-        <v>0.01666069030761719</v>
+        <v>0.008018255233764648</v>
       </c>
       <c r="T128" t="n">
-        <v>0.003659963607788086</v>
+        <v>0.009677648544311523</v>
       </c>
       <c r="U128" t="n">
-        <v>1.238656044006348</v>
+        <v>1.255085468292236</v>
       </c>
       <c r="V128" t="n">
         <v>1</v>
@@ -19412,18 +19412,18 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0.01201844215393066</v>
+        <v>0.01248455047607422</v>
       </c>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="n">
-        <v>0.5179767608642578</v>
+        <v>0.5384781360626221</v>
       </c>
       <c r="S129" t="n">
-        <v>0.01201844215393066</v>
+        <v>0.01248455047607422</v>
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="n">
-        <v>0.5179767608642578</v>
+        <v>0.5384781360626221</v>
       </c>
       <c r="V129" t="n">
         <v>1</v>
@@ -19558,22 +19558,22 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0.01201963424682617</v>
+        <v>0.01189756393432617</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.005759477615356445</v>
+        <v>0</v>
       </c>
       <c r="R130" t="n">
-        <v>0.3928027153015137</v>
+        <v>0.36869215965271</v>
       </c>
       <c r="S130" t="n">
-        <v>0.01201963424682617</v>
+        <v>0.01189756393432617</v>
       </c>
       <c r="T130" t="n">
-        <v>0.005759477615356445</v>
+        <v>0</v>
       </c>
       <c r="U130" t="n">
-        <v>0.3928027153015137</v>
+        <v>0.36869215965271</v>
       </c>
       <c r="V130" t="n">
         <v>1</v>
@@ -19706,18 +19706,18 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>0.05295038223266602</v>
+        <v>0.06572389602661133</v>
       </c>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="n">
-        <v>0.5724654197692871</v>
+        <v>0.5650250911712646</v>
       </c>
       <c r="S131" t="n">
-        <v>0.05295038223266602</v>
+        <v>0.06572389602661133</v>
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>0.5724654197692871</v>
+        <v>0.5650250911712646</v>
       </c>
       <c r="V131" t="n">
         <v>1</v>
@@ -19850,18 +19850,18 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>0.01383852958679199</v>
+        <v>0.01500821113586426</v>
       </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="n">
-        <v>1.206393480300903</v>
+        <v>1.289377689361572</v>
       </c>
       <c r="S132" t="n">
-        <v>0.01383852958679199</v>
+        <v>0.01500821113586426</v>
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>1.206393480300903</v>
+        <v>1.289377689361572</v>
       </c>
       <c r="V132" t="n">
         <v>1</v>
@@ -19996,22 +19996,22 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>0.01428914070129395</v>
+        <v>0.01114034652709961</v>
       </c>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>0.007753372192382812</v>
       </c>
       <c r="R133" t="n">
-        <v>1.516182899475098</v>
+        <v>1.567307472229004</v>
       </c>
       <c r="S133" t="n">
-        <v>0.01428914070129395</v>
+        <v>0.01114034652709961</v>
       </c>
       <c r="T133" t="n">
-        <v>0</v>
+        <v>0.007753372192382812</v>
       </c>
       <c r="U133" t="n">
-        <v>1.516182899475098</v>
+        <v>1.567307472229004</v>
       </c>
       <c r="V133" t="n">
         <v>1</v>
@@ -20146,22 +20146,22 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.006016016006469727</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.004539728164672852</v>
       </c>
       <c r="R134" t="n">
-        <v>0.4105665683746338</v>
+        <v>0.5234262943267822</v>
       </c>
       <c r="S134" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.006016016006469727</v>
       </c>
       <c r="T134" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.004539728164672852</v>
       </c>
       <c r="U134" t="n">
-        <v>0.4105665683746338</v>
+        <v>0.5234262943267822</v>
       </c>
       <c r="V134" t="n">
         <v>1</v>
@@ -20296,22 +20296,22 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>0.06420254707336426</v>
+        <v>0.06560420989990234</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.03891491889953613</v>
+        <v>0.04396605491638184</v>
       </c>
       <c r="R135" t="n">
-        <v>0.5738003253936768</v>
+        <v>0.5517888069152832</v>
       </c>
       <c r="S135" t="n">
-        <v>0.06420254707336426</v>
+        <v>0.06560420989990234</v>
       </c>
       <c r="T135" t="n">
-        <v>0.03891491889953613</v>
+        <v>0.04396605491638184</v>
       </c>
       <c r="U135" t="n">
-        <v>0.5738003253936768</v>
+        <v>0.5517888069152832</v>
       </c>
       <c r="V135" t="n">
         <v>1</v>
@@ -20444,18 +20444,18 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>0.01676011085510254</v>
+        <v>0.01053452491760254</v>
       </c>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="n">
-        <v>1.594884872436523</v>
+        <v>1.644211530685425</v>
       </c>
       <c r="S136" t="n">
-        <v>0.01676011085510254</v>
+        <v>0.01053452491760254</v>
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="n">
-        <v>1.594884872436523</v>
+        <v>1.644211530685425</v>
       </c>
       <c r="V136" t="n">
         <v>1</v>
@@ -20588,18 +20588,18 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>0.008022546768188477</v>
+        <v>0.00799870491027832</v>
       </c>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="n">
-        <v>0.3131430149078369</v>
+        <v>0.2870264053344727</v>
       </c>
       <c r="S137" t="n">
-        <v>0.008022546768188477</v>
+        <v>0.00799870491027832</v>
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>0.3131430149078369</v>
+        <v>0.2870264053344727</v>
       </c>
       <c r="V137" t="n">
         <v>1</v>
@@ -20734,22 +20734,22 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>0.02881550788879395</v>
+        <v>0.02063751220703125</v>
       </c>
       <c r="Q138" t="n">
-        <v>0</v>
+        <v>0.003446340560913086</v>
       </c>
       <c r="R138" t="n">
-        <v>0.8962359428405762</v>
+        <v>1.045626163482666</v>
       </c>
       <c r="S138" t="n">
-        <v>0.02881550788879395</v>
+        <v>0.02063751220703125</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>0.003446340560913086</v>
       </c>
       <c r="U138" t="n">
-        <v>0.8962359428405762</v>
+        <v>1.045626163482666</v>
       </c>
       <c r="V138" t="n">
         <v>1</v>
@@ -20884,22 +20884,22 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>0.008020162582397461</v>
+        <v>0</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.01601433753967285</v>
+        <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>0.3444943428039551</v>
+        <v>0.3583121299743652</v>
       </c>
       <c r="S139" t="n">
-        <v>0.008020162582397461</v>
+        <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>0.01601433753967285</v>
+        <v>0</v>
       </c>
       <c r="U139" t="n">
-        <v>0.3444943428039551</v>
+        <v>0.3583121299743652</v>
       </c>
       <c r="V139" t="n">
         <v>1</v>
@@ -21032,18 +21032,18 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>0.0147249698638916</v>
+        <v>0.01530694961547852</v>
       </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
-        <v>1.692827224731445</v>
+        <v>1.730715036392212</v>
       </c>
       <c r="S140" t="n">
-        <v>0.0147249698638916</v>
+        <v>0.01530694961547852</v>
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>1.692827224731445</v>
+        <v>1.730715036392212</v>
       </c>
       <c r="V140" t="n">
         <v>1</v>
@@ -21178,22 +21178,22 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>0</v>
+        <v>0.01002097129821777</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.008579254150390625</v>
+        <v>0.006997346878051758</v>
       </c>
       <c r="R141" t="n">
-        <v>1.739482164382935</v>
+        <v>1.802283525466919</v>
       </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>0.01002097129821777</v>
       </c>
       <c r="T141" t="n">
-        <v>0.008579254150390625</v>
+        <v>0.006997346878051758</v>
       </c>
       <c r="U141" t="n">
-        <v>1.739482164382935</v>
+        <v>1.802283525466919</v>
       </c>
       <c r="V141" t="n">
         <v>1</v>
@@ -21326,18 +21326,18 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>0.06655454635620117</v>
+        <v>0.06718301773071289</v>
       </c>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="n">
-        <v>0.7021152973175049</v>
+        <v>0.6306180953979492</v>
       </c>
       <c r="S142" t="n">
-        <v>0.06655454635620117</v>
+        <v>0.06718301773071289</v>
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>0.7021152973175049</v>
+        <v>0.6306180953979492</v>
       </c>
       <c r="V142" t="n">
         <v>1</v>
@@ -21472,22 +21472,22 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>0.01418280601501465</v>
+        <v>0.01470541954040527</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.01539874076843262</v>
+        <v>0</v>
       </c>
       <c r="R143" t="n">
-        <v>2.349531412124634</v>
+        <v>2.464778184890747</v>
       </c>
       <c r="S143" t="n">
-        <v>0.01418280601501465</v>
+        <v>0.01470541954040527</v>
       </c>
       <c r="T143" t="n">
-        <v>0.01539874076843262</v>
+        <v>0</v>
       </c>
       <c r="U143" t="n">
-        <v>2.349531412124634</v>
+        <v>2.464778184890747</v>
       </c>
       <c r="V143" t="n">
         <v>1</v>
@@ -21620,18 +21620,18 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>0.06384372711181641</v>
+        <v>0.06780099868774414</v>
       </c>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="n">
-        <v>0.5726592540740967</v>
+        <v>0.5687973499298096</v>
       </c>
       <c r="S144" t="n">
-        <v>0.06384372711181641</v>
+        <v>0.06780099868774414</v>
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="n">
-        <v>0.5726592540740967</v>
+        <v>0.5687973499298096</v>
       </c>
       <c r="V144" t="n">
         <v>1</v>
@@ -21766,22 +21766,22 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>0.01259326934814453</v>
+        <v>0.01488041877746582</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
       </c>
       <c r="R145" t="n">
-        <v>1.033332109451294</v>
+        <v>1.03223991394043</v>
       </c>
       <c r="S145" t="n">
-        <v>0.01259326934814453</v>
+        <v>0.01488041877746582</v>
       </c>
       <c r="T145" t="n">
         <v>0</v>
       </c>
       <c r="U145" t="n">
-        <v>1.033332109451294</v>
+        <v>1.03223991394043</v>
       </c>
       <c r="V145" t="n">
         <v>1</v>
@@ -21916,22 +21916,22 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>0.06552433967590332</v>
+        <v>0.06830954551696777</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.03920388221740723</v>
+        <v>0.04204154014587402</v>
       </c>
       <c r="R146" t="n">
-        <v>0.5328044891357422</v>
+        <v>0.5305178165435791</v>
       </c>
       <c r="S146" t="n">
-        <v>0.06552433967590332</v>
+        <v>0.06830954551696777</v>
       </c>
       <c r="T146" t="n">
-        <v>0.03920388221740723</v>
+        <v>0.04204154014587402</v>
       </c>
       <c r="U146" t="n">
-        <v>0.5328044891357422</v>
+        <v>0.5305178165435791</v>
       </c>
       <c r="V146" t="n">
         <v>1</v>
@@ -22066,22 +22066,22 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>0.01674675941467285</v>
+        <v>0.01106572151184082</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.01705241203308105</v>
+        <v>0.02219271659851074</v>
       </c>
       <c r="R147" t="n">
-        <v>2.628109931945801</v>
+        <v>2.71316933631897</v>
       </c>
       <c r="S147" t="n">
-        <v>0.01674675941467285</v>
+        <v>0.01106572151184082</v>
       </c>
       <c r="T147" t="n">
-        <v>0.01705241203308105</v>
+        <v>0.02219271659851074</v>
       </c>
       <c r="U147" t="n">
-        <v>2.628109931945801</v>
+        <v>2.71316933631897</v>
       </c>
       <c r="V147" t="n">
         <v>1</v>
@@ -22214,18 +22214,18 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>0.0154273509979248</v>
+        <v>0.01623725891113281</v>
       </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="n">
-        <v>1.371384382247925</v>
+        <v>1.442973136901855</v>
       </c>
       <c r="S148" t="n">
-        <v>0.0154273509979248</v>
+        <v>0.01623725891113281</v>
       </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
-        <v>1.371384382247925</v>
+        <v>1.442973136901855</v>
       </c>
       <c r="V148" t="n">
         <v>1</v>
@@ -22360,22 +22360,22 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>0.06482100486755371</v>
+        <v>0.06507158279418945</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.03917956352233887</v>
+        <v>0.04023098945617676</v>
       </c>
       <c r="R149" t="n">
-        <v>0.5811245441436768</v>
+        <v>0.5538718700408936</v>
       </c>
       <c r="S149" t="n">
-        <v>0.06482100486755371</v>
+        <v>0.06507158279418945</v>
       </c>
       <c r="T149" t="n">
-        <v>0.03917956352233887</v>
+        <v>0.04023098945617676</v>
       </c>
       <c r="U149" t="n">
-        <v>0.5811245441436768</v>
+        <v>0.5538718700408936</v>
       </c>
       <c r="V149" t="n">
         <v>1</v>
@@ -22510,22 +22510,22 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>0.01202106475830078</v>
+        <v>0.01202607154846191</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.0218815803527832</v>
+        <v>0.00600886344909668</v>
       </c>
       <c r="R150" t="n">
-        <v>1.366526365280151</v>
+        <v>1.460006713867188</v>
       </c>
       <c r="S150" t="n">
-        <v>0.01202106475830078</v>
+        <v>0.01202607154846191</v>
       </c>
       <c r="T150" t="n">
-        <v>0.0218815803527832</v>
+        <v>0.00600886344909668</v>
       </c>
       <c r="U150" t="n">
-        <v>1.366526365280151</v>
+        <v>1.460006713867188</v>
       </c>
       <c r="V150" t="n">
         <v>1</v>
@@ -22658,18 +22658,18 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>0.02130842208862305</v>
+        <v>0.01545333862304688</v>
       </c>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="n">
-        <v>0.1552352905273438</v>
+        <v>0.1436598300933838</v>
       </c>
       <c r="S151" t="n">
-        <v>0.02130842208862305</v>
+        <v>0.01545333862304688</v>
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="n">
-        <v>0.1552352905273438</v>
+        <v>0.1436598300933838</v>
       </c>
       <c r="V151" t="n">
         <v>1</v>
@@ -22802,18 +22802,18 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>0.0516505241394043</v>
+        <v>0.06117057800292969</v>
       </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
-        <v>0.626629114151001</v>
+        <v>0.6901309490203857</v>
       </c>
       <c r="S152" t="n">
-        <v>0.0516505241394043</v>
+        <v>0.06117057800292969</v>
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">
-        <v>0.626629114151001</v>
+        <v>0.6901309490203857</v>
       </c>
       <c r="V152" t="n">
         <v>1</v>
@@ -22946,18 +22946,18 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>0.05112791061401367</v>
+        <v>0.05148601531982422</v>
       </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="n">
-        <v>0.5277087688446045</v>
+        <v>0.5265588760375977</v>
       </c>
       <c r="S153" t="n">
-        <v>0.05112791061401367</v>
+        <v>0.05148601531982422</v>
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="n">
-        <v>0.5277087688446045</v>
+        <v>0.5265588760375977</v>
       </c>
       <c r="V153" t="n">
         <v>1</v>
@@ -23090,18 +23090,18 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>0.01388287544250488</v>
+        <v>0.01402688026428223</v>
       </c>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="n">
-        <v>0.6591482162475586</v>
+        <v>0.7219934463500977</v>
       </c>
       <c r="S154" t="n">
-        <v>0.01388287544250488</v>
+        <v>0.01402688026428223</v>
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="n">
-        <v>0.6591482162475586</v>
+        <v>0.7219934463500977</v>
       </c>
       <c r="V154" t="n">
         <v>1</v>
@@ -23234,18 +23234,18 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>0.01214766502380371</v>
+        <v>0.01177740097045898</v>
       </c>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="n">
-        <v>1.013599395751953</v>
+        <v>1.053316593170166</v>
       </c>
       <c r="S155" t="n">
-        <v>0.01214766502380371</v>
+        <v>0.01177740097045898</v>
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="n">
-        <v>1.013599395751953</v>
+        <v>1.053316593170166</v>
       </c>
       <c r="V155" t="n">
         <v>1</v>
@@ -23378,18 +23378,18 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>0.0005168914794921875</v>
+        <v>0.01345205307006836</v>
       </c>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="n">
-        <v>0.3818204402923584</v>
+        <v>0.3470098972320557</v>
       </c>
       <c r="S156" t="n">
-        <v>0.0005168914794921875</v>
+        <v>0.01345205307006836</v>
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
-        <v>0.3818204402923584</v>
+        <v>0.3470098972320557</v>
       </c>
       <c r="V156" t="n">
         <v>1</v>
@@ -23524,22 +23524,22 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>0.05970001220703125</v>
+        <v>0.05458593368530273</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.04001426696777344</v>
+        <v>0.04025483131408691</v>
       </c>
       <c r="R157" t="n">
-        <v>0.6033289432525635</v>
+        <v>0.51318359375</v>
       </c>
       <c r="S157" t="n">
-        <v>0.05970001220703125</v>
+        <v>0.05458593368530273</v>
       </c>
       <c r="T157" t="n">
-        <v>0.04001426696777344</v>
+        <v>0.04025483131408691</v>
       </c>
       <c r="U157" t="n">
-        <v>0.6033289432525635</v>
+        <v>0.51318359375</v>
       </c>
       <c r="V157" t="n">
         <v>1</v>
@@ -23674,22 +23674,22 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>0.06689643859863281</v>
+        <v>0.06901240348815918</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.03941988945007324</v>
+        <v>0.06025242805480957</v>
       </c>
       <c r="R158" t="n">
-        <v>0.8145697116851807</v>
+        <v>0.6772720813751221</v>
       </c>
       <c r="S158" t="n">
-        <v>0.06689643859863281</v>
+        <v>0.06901240348815918</v>
       </c>
       <c r="T158" t="n">
-        <v>0.03941988945007324</v>
+        <v>0.06025242805480957</v>
       </c>
       <c r="U158" t="n">
-        <v>0.8145697116851807</v>
+        <v>0.6772720813751221</v>
       </c>
       <c r="V158" t="n">
         <v>1</v>
@@ -23824,22 +23824,22 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>0.004745244979858398</v>
+        <v>0.004010438919067383</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.003159284591674805</v>
+        <v>0</v>
       </c>
       <c r="R159" t="n">
-        <v>0.3322145938873291</v>
+        <v>0.3533484935760498</v>
       </c>
       <c r="S159" t="n">
-        <v>0.004745244979858398</v>
+        <v>0.004010438919067383</v>
       </c>
       <c r="T159" t="n">
-        <v>0.003159284591674805</v>
+        <v>0</v>
       </c>
       <c r="U159" t="n">
-        <v>0.3322145938873291</v>
+        <v>0.3533484935760498</v>
       </c>
       <c r="V159" t="n">
         <v>1</v>
@@ -23972,18 +23972,18 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>0.01302266120910645</v>
+        <v>0.01443815231323242</v>
       </c>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="n">
-        <v>0.3441092967987061</v>
+        <v>0.3422544002532959</v>
       </c>
       <c r="S160" t="n">
-        <v>0.01302266120910645</v>
+        <v>0.01443815231323242</v>
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="n">
-        <v>0.3441092967987061</v>
+        <v>0.3422544002532959</v>
       </c>
       <c r="V160" t="n">
         <v>1</v>
@@ -24118,22 +24118,22 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>0.01187944412231445</v>
+        <v>0.01439189910888672</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.008009910583496094</v>
+        <v>0</v>
       </c>
       <c r="R161" t="n">
-        <v>1.283644676208496</v>
+        <v>1.304930210113525</v>
       </c>
       <c r="S161" t="n">
-        <v>0.01187944412231445</v>
+        <v>0.01439189910888672</v>
       </c>
       <c r="T161" t="n">
-        <v>0.008009910583496094</v>
+        <v>0</v>
       </c>
       <c r="U161" t="n">
-        <v>1.283644676208496</v>
+        <v>1.304930210113525</v>
       </c>
       <c r="V161" t="n">
         <v>1</v>
@@ -24266,18 +24266,18 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>0.01470375061035156</v>
+        <v>0.01571822166442871</v>
       </c>
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="n">
-        <v>1.218581676483154</v>
+        <v>1.268203258514404</v>
       </c>
       <c r="S162" t="n">
-        <v>0.01470375061035156</v>
+        <v>0.01571822166442871</v>
       </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="n">
-        <v>1.218581676483154</v>
+        <v>1.268203258514404</v>
       </c>
       <c r="V162" t="n">
         <v>1</v>
@@ -24412,22 +24412,22 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>0.01201796531677246</v>
+        <v>0.01176619529724121</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.008013010025024414</v>
+        <v>0</v>
       </c>
       <c r="R163" t="n">
-        <v>1.483405590057373</v>
+        <v>1.542957782745361</v>
       </c>
       <c r="S163" t="n">
-        <v>0.01201796531677246</v>
+        <v>0.01176619529724121</v>
       </c>
       <c r="T163" t="n">
-        <v>0.008013010025024414</v>
+        <v>0</v>
       </c>
       <c r="U163" t="n">
-        <v>1.483405590057373</v>
+        <v>1.542957782745361</v>
       </c>
       <c r="V163" t="n">
         <v>1</v>
@@ -24562,22 +24562,22 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>0.01005673408508301</v>
+        <v>0.009765148162841797</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.005760669708251953</v>
+        <v>0.008358001708984375</v>
       </c>
       <c r="R164" t="n">
-        <v>0.7317814826965332</v>
+        <v>0.7236857414245605</v>
       </c>
       <c r="S164" t="n">
-        <v>0.01005673408508301</v>
+        <v>0.009765148162841797</v>
       </c>
       <c r="T164" t="n">
-        <v>0.005760669708251953</v>
+        <v>0.008358001708984375</v>
       </c>
       <c r="U164" t="n">
-        <v>0.7317814826965332</v>
+        <v>0.7236857414245605</v>
       </c>
       <c r="V164" t="n">
         <v>1</v>
@@ -24712,22 +24712,22 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>0.01015758514404297</v>
+        <v>0.00902557373046875</v>
       </c>
       <c r="Q165" t="n">
         <v>0</v>
       </c>
       <c r="R165" t="n">
-        <v>0.6490960121154785</v>
+        <v>0.6852784156799316</v>
       </c>
       <c r="S165" t="n">
-        <v>0.01015758514404297</v>
+        <v>0.00902557373046875</v>
       </c>
       <c r="T165" t="n">
         <v>0</v>
       </c>
       <c r="U165" t="n">
-        <v>0.6490960121154785</v>
+        <v>0.6852784156799316</v>
       </c>
       <c r="V165" t="n">
         <v>1</v>
@@ -24860,18 +24860,18 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>0.01411175727844238</v>
+        <v>0.01438117027282715</v>
       </c>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="n">
-        <v>0.472984790802002</v>
+        <v>0.4433729648590088</v>
       </c>
       <c r="S166" t="n">
-        <v>0.01411175727844238</v>
+        <v>0.01438117027282715</v>
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="n">
-        <v>0.472984790802002</v>
+        <v>0.4433729648590088</v>
       </c>
       <c r="V166" t="n">
         <v>1</v>
@@ -25004,18 +25004,18 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>0.01203083992004395</v>
+        <v>0.009405136108398438</v>
       </c>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="n">
-        <v>1.520268201828003</v>
+        <v>1.503846406936646</v>
       </c>
       <c r="S167" t="n">
-        <v>0.01203083992004395</v>
+        <v>0.009405136108398438</v>
       </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="n">
-        <v>1.520268201828003</v>
+        <v>1.503846406936646</v>
       </c>
       <c r="V167" t="n">
         <v>1</v>
@@ -25150,22 +25150,22 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>0.05273604393005371</v>
+        <v>0.05291199684143066</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.04094552993774414</v>
+        <v>0.03829479217529297</v>
       </c>
       <c r="R168" t="n">
-        <v>0.667125940322876</v>
+        <v>0.6396117210388184</v>
       </c>
       <c r="S168" t="n">
-        <v>0.05273604393005371</v>
+        <v>0.05291199684143066</v>
       </c>
       <c r="T168" t="n">
-        <v>0.04094552993774414</v>
+        <v>0.03829479217529297</v>
       </c>
       <c r="U168" t="n">
-        <v>0.667125940322876</v>
+        <v>0.6396117210388184</v>
       </c>
       <c r="V168" t="n">
         <v>1</v>
@@ -25300,22 +25300,22 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>0.01439929008483887</v>
+        <v>0.01354050636291504</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.007516145706176758</v>
+        <v>0.0160529613494873</v>
       </c>
       <c r="R169" t="n">
-        <v>2.664736986160278</v>
+        <v>2.717806339263916</v>
       </c>
       <c r="S169" t="n">
-        <v>0.01439929008483887</v>
+        <v>0.01354050636291504</v>
       </c>
       <c r="T169" t="n">
-        <v>0.007516145706176758</v>
+        <v>0.0160529613494873</v>
       </c>
       <c r="U169" t="n">
-        <v>2.664736986160278</v>
+        <v>2.717806339263916</v>
       </c>
       <c r="V169" t="n">
         <v>1</v>
@@ -25450,22 +25450,22 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.005050420761108398</v>
       </c>
       <c r="Q170" t="n">
         <v>0</v>
       </c>
       <c r="R170" t="n">
-        <v>0.3506808280944824</v>
+        <v>0.3816335201263428</v>
       </c>
       <c r="S170" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.005050420761108398</v>
       </c>
       <c r="T170" t="n">
         <v>0</v>
       </c>
       <c r="U170" t="n">
-        <v>0.3506808280944824</v>
+        <v>0.3816335201263428</v>
       </c>
       <c r="V170" t="n">
         <v>1</v>
@@ -25598,18 +25598,18 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>0.01001548767089844</v>
+        <v>0.009758710861206055</v>
       </c>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="n">
-        <v>0.4334347248077393</v>
+        <v>0.4467940330505371</v>
       </c>
       <c r="S171" t="n">
-        <v>0.01001548767089844</v>
+        <v>0.009758710861206055</v>
       </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="n">
-        <v>0.4334347248077393</v>
+        <v>0.4467940330505371</v>
       </c>
       <c r="V171" t="n">
         <v>1</v>
@@ -25744,22 +25744,22 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>0.01413893699645996</v>
+        <v>0.0137326717376709</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.008019924163818359</v>
+        <v>0.005747795104980469</v>
       </c>
       <c r="R172" t="n">
-        <v>1.453335523605347</v>
+        <v>1.553291082382202</v>
       </c>
       <c r="S172" t="n">
-        <v>0.01413893699645996</v>
+        <v>0.0137326717376709</v>
       </c>
       <c r="T172" t="n">
-        <v>0.008019924163818359</v>
+        <v>0.005747795104980469</v>
       </c>
       <c r="U172" t="n">
-        <v>1.453335523605347</v>
+        <v>1.553291082382202</v>
       </c>
       <c r="V172" t="n">
         <v>1</v>
@@ -25892,18 +25892,18 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>0.05198121070861816</v>
+        <v>0.06505513191223145</v>
       </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="n">
-        <v>0.5312893390655518</v>
+        <v>0.5205566883087158</v>
       </c>
       <c r="S173" t="n">
-        <v>0.05198121070861816</v>
+        <v>0.06505513191223145</v>
       </c>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="n">
-        <v>0.5312893390655518</v>
+        <v>0.5205566883087158</v>
       </c>
       <c r="V173" t="n">
         <v>1</v>
@@ -26036,18 +26036,18 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>0.06516885757446289</v>
+        <v>0.06599855422973633</v>
       </c>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="n">
-        <v>0.7578361034393311</v>
+        <v>0.6274251937866211</v>
       </c>
       <c r="S174" t="n">
-        <v>0.06516885757446289</v>
+        <v>0.06599855422973633</v>
       </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="n">
-        <v>0.7578361034393311</v>
+        <v>0.6274251937866211</v>
       </c>
       <c r="V174" t="n">
         <v>1</v>
@@ -26180,18 +26180,18 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>0.008011579513549805</v>
+        <v>0.009772300720214844</v>
       </c>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="n">
-        <v>0.30423903465271</v>
+        <v>0.3293912410736084</v>
       </c>
       <c r="S175" t="n">
-        <v>0.008011579513549805</v>
+        <v>0.009772300720214844</v>
       </c>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="n">
-        <v>0.30423903465271</v>
+        <v>0.3293912410736084</v>
       </c>
       <c r="V175" t="n">
         <v>1</v>
@@ -26324,18 +26324,18 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>0.008998632431030273</v>
+        <v>0.01003241539001465</v>
       </c>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="n">
-        <v>0.8625557422637939</v>
+        <v>0.8820006847381592</v>
       </c>
       <c r="S176" t="n">
-        <v>0.008998632431030273</v>
+        <v>0.01003241539001465</v>
       </c>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="n">
-        <v>0.8625557422637939</v>
+        <v>0.8820006847381592</v>
       </c>
       <c r="V176" t="n">
         <v>1</v>
@@ -26470,22 +26470,22 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>0.01268887519836426</v>
+        <v>0.01412582397460938</v>
       </c>
       <c r="Q177" t="n">
         <v>0</v>
       </c>
       <c r="R177" t="n">
-        <v>0.3629138469696045</v>
+        <v>0.3835654258728027</v>
       </c>
       <c r="S177" t="n">
-        <v>0.01268887519836426</v>
+        <v>0.01412582397460938</v>
       </c>
       <c r="T177" t="n">
         <v>0</v>
       </c>
       <c r="U177" t="n">
-        <v>0.3629138469696045</v>
+        <v>0.3835654258728027</v>
       </c>
       <c r="V177" t="n">
         <v>1</v>
@@ -26618,18 +26618,18 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>0.0140233039855957</v>
+        <v>0.01404190063476562</v>
       </c>
       <c r="Q178" t="inlineStr"/>
       <c r="R178" t="n">
-        <v>0.3010439872741699</v>
+        <v>0.3072657585144043</v>
       </c>
       <c r="S178" t="n">
-        <v>0.0140233039855957</v>
+        <v>0.01404190063476562</v>
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>0.3010439872741699</v>
+        <v>0.3072657585144043</v>
       </c>
       <c r="V178" t="n">
         <v>1</v>
@@ -26762,18 +26762,18 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>0.01011395454406738</v>
+        <v>0.01176548004150391</v>
       </c>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="n">
-        <v>0.6460943222045898</v>
+        <v>0.6682469844818115</v>
       </c>
       <c r="S179" t="n">
-        <v>0.01011395454406738</v>
+        <v>0.01176548004150391</v>
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>0.6460943222045898</v>
+        <v>0.6682469844818115</v>
       </c>
       <c r="V179" t="n">
         <v>1</v>
@@ -26906,18 +26906,18 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>0.01432156562805176</v>
+        <v>0.01377034187316895</v>
       </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
-        <v>2.526188135147095</v>
+        <v>2.612268686294556</v>
       </c>
       <c r="S180" t="n">
-        <v>0.01432156562805176</v>
+        <v>0.01377034187316895</v>
       </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>2.526188135147095</v>
+        <v>2.612268686294556</v>
       </c>
       <c r="V180" t="n">
         <v>1</v>
@@ -27052,22 +27052,22 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>0.01393318176269531</v>
+        <v>0.01352238655090332</v>
       </c>
       <c r="Q181" t="n">
-        <v>0</v>
+        <v>0.015350341796875</v>
       </c>
       <c r="R181" t="n">
-        <v>0.556673526763916</v>
+        <v>0.5529141426086426</v>
       </c>
       <c r="S181" t="n">
-        <v>0.01393318176269531</v>
+        <v>0.01352238655090332</v>
       </c>
       <c r="T181" t="n">
-        <v>0</v>
+        <v>0.015350341796875</v>
       </c>
       <c r="U181" t="n">
-        <v>0.556673526763916</v>
+        <v>0.5529141426086426</v>
       </c>
       <c r="V181" t="n">
         <v>1</v>
@@ -27202,22 +27202,22 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>0.01208615303039551</v>
+        <v>0.01175880432128906</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.01494765281677246</v>
+        <v>0.01771974563598633</v>
       </c>
       <c r="R182" t="n">
-        <v>0.7210624217987061</v>
+        <v>0.7657303810119629</v>
       </c>
       <c r="S182" t="n">
-        <v>0.01208615303039551</v>
+        <v>0.01175880432128906</v>
       </c>
       <c r="T182" t="n">
-        <v>0.01494765281677246</v>
+        <v>0.01771974563598633</v>
       </c>
       <c r="U182" t="n">
-        <v>0.7210624217987061</v>
+        <v>0.7657303810119629</v>
       </c>
       <c r="V182" t="n">
         <v>1</v>
@@ -27350,18 +27350,18 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>0.01284241676330566</v>
+        <v>0.01406431198120117</v>
       </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
-        <v>0.848397970199585</v>
+        <v>0.8647191524505615</v>
       </c>
       <c r="S183" t="n">
-        <v>0.01284241676330566</v>
+        <v>0.01406431198120117</v>
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>0.848397970199585</v>
+        <v>0.8647191524505615</v>
       </c>
       <c r="V183" t="n">
         <v>1</v>
@@ -27496,22 +27496,22 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>0.009110927581787109</v>
+        <v>0.009981393814086914</v>
       </c>
       <c r="Q184" t="n">
         <v>0</v>
       </c>
       <c r="R184" t="n">
-        <v>1.183238506317139</v>
+        <v>1.180680751800537</v>
       </c>
       <c r="S184" t="n">
-        <v>0.009110927581787109</v>
+        <v>0.009981393814086914</v>
       </c>
       <c r="T184" t="n">
         <v>0</v>
       </c>
       <c r="U184" t="n">
-        <v>1.183238506317139</v>
+        <v>1.180680751800537</v>
       </c>
       <c r="V184" t="n">
         <v>1</v>
@@ -27644,18 +27644,18 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>0.01062130928039551</v>
+        <v>0.01180672645568848</v>
       </c>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="n">
-        <v>2.048592805862427</v>
+        <v>2.12960147857666</v>
       </c>
       <c r="S185" t="n">
-        <v>0.01062130928039551</v>
+        <v>0.01180672645568848</v>
       </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
-        <v>2.048592805862427</v>
+        <v>2.12960147857666</v>
       </c>
       <c r="V185" t="n">
         <v>1</v>
@@ -27788,18 +27788,18 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>0.03683090209960938</v>
+        <v>0.03765368461608887</v>
       </c>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
-        <v>0.4758942127227783</v>
+        <v>0.4854319095611572</v>
       </c>
       <c r="S186" t="n">
-        <v>0.03683090209960938</v>
+        <v>0.03765368461608887</v>
       </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
-        <v>0.4758942127227783</v>
+        <v>0.4854319095611572</v>
       </c>
       <c r="V186" t="n">
         <v>1</v>
@@ -27932,18 +27932,18 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>0.0006756782531738281</v>
+        <v>0</v>
       </c>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="n">
-        <v>0.9115381240844727</v>
+        <v>0.9686574935913086</v>
       </c>
       <c r="S187" t="n">
-        <v>0.0006756782531738281</v>
+        <v>0</v>
       </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="n">
-        <v>0.9115381240844727</v>
+        <v>0.9686574935913086</v>
       </c>
       <c r="V187" t="n">
         <v>1</v>
@@ -28078,22 +28078,22 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>0.05316925048828125</v>
+        <v>0.05111360549926758</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.03898119926452637</v>
+        <v>0.03931903839111328</v>
       </c>
       <c r="R188" t="n">
-        <v>0.657106876373291</v>
+        <v>0.5174331665039062</v>
       </c>
       <c r="S188" t="n">
-        <v>0.05316925048828125</v>
+        <v>0.05111360549926758</v>
       </c>
       <c r="T188" t="n">
-        <v>0.03898119926452637</v>
+        <v>0.03931903839111328</v>
       </c>
       <c r="U188" t="n">
-        <v>0.657106876373291</v>
+        <v>0.5174331665039062</v>
       </c>
       <c r="V188" t="n">
         <v>1</v>
@@ -28228,22 +28228,22 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>0.01428341865539551</v>
+        <v>0.01353931427001953</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.01977038383483887</v>
+        <v>0.005748748779296875</v>
       </c>
       <c r="R189" t="n">
-        <v>2.202349185943604</v>
+        <v>2.326083421707153</v>
       </c>
       <c r="S189" t="n">
-        <v>0.01428341865539551</v>
+        <v>0.01353931427001953</v>
       </c>
       <c r="T189" t="n">
-        <v>0.01977038383483887</v>
+        <v>0.005748748779296875</v>
       </c>
       <c r="U189" t="n">
-        <v>2.202349185943604</v>
+        <v>2.326083421707153</v>
       </c>
       <c r="V189" t="n">
         <v>1</v>
@@ -28378,22 +28378,22 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>0.006427764892578125</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.01370143890380859</v>
+        <v>0.01529240608215332</v>
       </c>
       <c r="R190" t="n">
-        <v>1.75065541267395</v>
+        <v>1.819048404693604</v>
       </c>
       <c r="S190" t="n">
-        <v>0.006427764892578125</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="T190" t="n">
-        <v>0.01370143890380859</v>
+        <v>0.01529240608215332</v>
       </c>
       <c r="U190" t="n">
-        <v>1.75065541267395</v>
+        <v>1.819048404693604</v>
       </c>
       <c r="V190" t="n">
         <v>1</v>
@@ -28526,18 +28526,18 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>0.008014678955078125</v>
+        <v>0.008024454116821289</v>
       </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
-        <v>0.1763317584991455</v>
+        <v>0.161116361618042</v>
       </c>
       <c r="S191" t="n">
-        <v>0.008014678955078125</v>
+        <v>0.008024454116821289</v>
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>0.1763317584991455</v>
+        <v>0.161116361618042</v>
       </c>
       <c r="V191" t="n">
         <v>1</v>
@@ -28670,18 +28670,18 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>0.01410722732543945</v>
+        <v>0.01353669166564941</v>
       </c>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
-        <v>0.5131466388702393</v>
+        <v>0.533588171005249</v>
       </c>
       <c r="S192" t="n">
-        <v>0.01410722732543945</v>
+        <v>0.01353669166564941</v>
       </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="n">
-        <v>0.5131466388702393</v>
+        <v>0.533588171005249</v>
       </c>
       <c r="V192" t="n">
         <v>1</v>
@@ -28816,22 +28816,22 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>0.01347756385803223</v>
+        <v>0.01402831077575684</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.003356456756591797</v>
+        <v>0.006016969680786133</v>
       </c>
       <c r="R193" t="n">
-        <v>2.867106914520264</v>
+        <v>2.987667560577393</v>
       </c>
       <c r="S193" t="n">
-        <v>0.01347756385803223</v>
+        <v>0.01402831077575684</v>
       </c>
       <c r="T193" t="n">
-        <v>0.003356456756591797</v>
+        <v>0.006016969680786133</v>
       </c>
       <c r="U193" t="n">
-        <v>2.867106914520264</v>
+        <v>2.987667560577393</v>
       </c>
       <c r="V193" t="n">
         <v>1</v>
@@ -28966,22 +28966,22 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>0</v>
+        <v>0.01137733459472656</v>
       </c>
       <c r="Q194" t="n">
-        <v>0</v>
+        <v>0.007766008377075195</v>
       </c>
       <c r="R194" t="n">
-        <v>1.28213357925415</v>
+        <v>1.310194253921509</v>
       </c>
       <c r="S194" t="n">
-        <v>0</v>
+        <v>0.01137733459472656</v>
       </c>
       <c r="T194" t="n">
-        <v>0</v>
+        <v>0.007766008377075195</v>
       </c>
       <c r="U194" t="n">
-        <v>1.28213357925415</v>
+        <v>1.310194253921509</v>
       </c>
       <c r="V194" t="n">
         <v>1</v>
@@ -29114,18 +29114,18 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>0.01300668716430664</v>
+        <v>0.01387858390808105</v>
       </c>
       <c r="Q195" t="inlineStr"/>
       <c r="R195" t="n">
-        <v>0.09650778770446777</v>
+        <v>0.09115910530090332</v>
       </c>
       <c r="S195" t="n">
-        <v>0.01300668716430664</v>
+        <v>0.01387858390808105</v>
       </c>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="n">
-        <v>0.09650778770446777</v>
+        <v>0.09115910530090332</v>
       </c>
       <c r="V195" t="n">
         <v>1</v>
@@ -29258,18 +29258,18 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>0.007999181747436523</v>
+        <v>0.002007246017456055</v>
       </c>
       <c r="Q196" t="inlineStr"/>
       <c r="R196" t="n">
-        <v>0.2894182205200195</v>
+        <v>0.3245141506195068</v>
       </c>
       <c r="S196" t="n">
-        <v>0.007999181747436523</v>
+        <v>0.002007246017456055</v>
       </c>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="n">
-        <v>0.2894182205200195</v>
+        <v>0.3245141506195068</v>
       </c>
       <c r="V196" t="n">
         <v>1</v>
@@ -29404,22 +29404,22 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>0.01159214973449707</v>
+        <v>0.005935430526733398</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.006019115447998047</v>
+        <v>0.01592063903808594</v>
       </c>
       <c r="R197" t="n">
-        <v>3.683883666992188</v>
+        <v>3.762901067733765</v>
       </c>
       <c r="S197" t="n">
-        <v>0.01159214973449707</v>
+        <v>0.005935430526733398</v>
       </c>
       <c r="T197" t="n">
-        <v>0.006019115447998047</v>
+        <v>0.01592063903808594</v>
       </c>
       <c r="U197" t="n">
-        <v>3.683883666992188</v>
+        <v>3.762901067733765</v>
       </c>
       <c r="V197" t="n">
         <v>1</v>
@@ -29552,18 +29552,18 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>0</v>
+        <v>0.00297856330871582</v>
       </c>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="n">
-        <v>0.2066662311553955</v>
+        <v>0.2182338237762451</v>
       </c>
       <c r="S198" t="n">
-        <v>0</v>
+        <v>0.00297856330871582</v>
       </c>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="n">
-        <v>0.2066662311553955</v>
+        <v>0.2182338237762451</v>
       </c>
       <c r="V198" t="n">
         <v>1</v>
@@ -29696,18 +29696,18 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>0.01553821563720703</v>
+        <v>0.01578521728515625</v>
       </c>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="n">
-        <v>1.07299280166626</v>
+        <v>1.191529750823975</v>
       </c>
       <c r="S199" t="n">
-        <v>0.01553821563720703</v>
+        <v>0.01578521728515625</v>
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="n">
-        <v>1.07299280166626</v>
+        <v>1.191529750823975</v>
       </c>
       <c r="V199" t="n">
         <v>1</v>
@@ -29840,18 +29840,18 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>0.008680105209350586</v>
+        <v>0.008744716644287109</v>
       </c>
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="n">
-        <v>0.5889878273010254</v>
+        <v>0.6224794387817383</v>
       </c>
       <c r="S200" t="n">
-        <v>0.008680105209350586</v>
+        <v>0.008744716644287109</v>
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="n">
-        <v>0.5889878273010254</v>
+        <v>0.6224794387817383</v>
       </c>
       <c r="V200" t="n">
         <v>1</v>
@@ -29986,22 +29986,22 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>0.0357053279876709</v>
+        <v>0.03758144378662109</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.01576352119445801</v>
+        <v>0.01354193687438965</v>
       </c>
       <c r="R201" t="n">
-        <v>2.360817193984985</v>
+        <v>2.665218114852905</v>
       </c>
       <c r="S201" t="n">
-        <v>0.0357053279876709</v>
+        <v>0.03758144378662109</v>
       </c>
       <c r="T201" t="n">
-        <v>0.01576352119445801</v>
+        <v>0.01354193687438965</v>
       </c>
       <c r="U201" t="n">
-        <v>2.360817193984985</v>
+        <v>2.665218114852905</v>
       </c>
       <c r="V201" t="n">
         <v>1</v>
@@ -30136,22 +30136,22 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>0.01382851600646973</v>
+        <v>0.01343107223510742</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.01803350448608398</v>
+        <v>0.002002477645874023</v>
       </c>
       <c r="R202" t="n">
-        <v>0.8150181770324707</v>
+        <v>0.9766743183135986</v>
       </c>
       <c r="S202" t="n">
-        <v>0.01382851600646973</v>
+        <v>0.01343107223510742</v>
       </c>
       <c r="T202" t="n">
-        <v>0.01803350448608398</v>
+        <v>0.002002477645874023</v>
       </c>
       <c r="U202" t="n">
-        <v>0.8150181770324707</v>
+        <v>0.9766743183135986</v>
       </c>
       <c r="V202" t="n">
         <v>1</v>
@@ -30286,22 +30286,22 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>0.01391792297363281</v>
+        <v>0.01002836227416992</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.01003456115722656</v>
+        <v>0.005748748779296875</v>
       </c>
       <c r="R203" t="n">
-        <v>2.411577224731445</v>
+        <v>2.489719152450562</v>
       </c>
       <c r="S203" t="n">
-        <v>0.01391792297363281</v>
+        <v>0.01002836227416992</v>
       </c>
       <c r="T203" t="n">
-        <v>0.01003456115722656</v>
+        <v>0.005748748779296875</v>
       </c>
       <c r="U203" t="n">
-        <v>2.411577224731445</v>
+        <v>2.489719152450562</v>
       </c>
       <c r="V203" t="n">
         <v>1</v>
@@ -30434,18 +30434,18 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>0.01430892944335938</v>
+        <v>0.01474261283874512</v>
       </c>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="n">
-        <v>0.3691306114196777</v>
+        <v>0.3834226131439209</v>
       </c>
       <c r="S204" t="n">
-        <v>0.01430892944335938</v>
+        <v>0.01474261283874512</v>
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="n">
-        <v>0.3691306114196777</v>
+        <v>0.3834226131439209</v>
       </c>
       <c r="V204" t="n">
         <v>1</v>
@@ -30580,22 +30580,22 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>0.01421022415161133</v>
+        <v>0.01577997207641602</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.02150511741638184</v>
+        <v>0.005748510360717773</v>
       </c>
       <c r="R205" t="n">
-        <v>2.709688425064087</v>
+        <v>2.85686469078064</v>
       </c>
       <c r="S205" t="n">
-        <v>0.01421022415161133</v>
+        <v>0.01577997207641602</v>
       </c>
       <c r="T205" t="n">
-        <v>0.02150511741638184</v>
+        <v>0.005748510360717773</v>
       </c>
       <c r="U205" t="n">
-        <v>2.709688425064087</v>
+        <v>2.85686469078064</v>
       </c>
       <c r="V205" t="n">
         <v>1</v>
@@ -30730,22 +30730,22 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>0.002597808837890625</v>
+        <v>0</v>
       </c>
       <c r="Q206" t="n">
         <v>0</v>
       </c>
       <c r="R206" t="n">
-        <v>2.253440380096436</v>
+        <v>2.332231044769287</v>
       </c>
       <c r="S206" t="n">
-        <v>0.002597808837890625</v>
+        <v>0</v>
       </c>
       <c r="T206" t="n">
         <v>0</v>
       </c>
       <c r="U206" t="n">
-        <v>2.253440380096436</v>
+        <v>2.332231044769287</v>
       </c>
       <c r="V206" t="n">
         <v>1</v>
@@ -30880,22 +30880,22 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>0.01001644134521484</v>
+        <v>0.01090002059936523</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.005757570266723633</v>
+        <v>0.005749940872192383</v>
       </c>
       <c r="R207" t="n">
-        <v>1.849666118621826</v>
+        <v>1.888365030288696</v>
       </c>
       <c r="S207" t="n">
-        <v>0.01001644134521484</v>
+        <v>0.01090002059936523</v>
       </c>
       <c r="T207" t="n">
-        <v>0.005757570266723633</v>
+        <v>0.005749940872192383</v>
       </c>
       <c r="U207" t="n">
-        <v>1.849666118621826</v>
+        <v>1.888365030288696</v>
       </c>
       <c r="V207" t="n">
         <v>1</v>
@@ -31028,18 +31028,18 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>0.01522660255432129</v>
+        <v>0.01658868789672852</v>
       </c>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="n">
-        <v>0.8343346118927002</v>
+        <v>0.8582141399383545</v>
       </c>
       <c r="S208" t="n">
-        <v>0.01522660255432129</v>
+        <v>0.01658868789672852</v>
       </c>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="n">
-        <v>0.8343346118927002</v>
+        <v>0.8582141399383545</v>
       </c>
       <c r="V208" t="n">
         <v>1</v>
@@ -31174,22 +31174,22 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>0.01334714889526367</v>
+        <v>0.01421809196472168</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.01929593086242676</v>
+        <v>0.01591825485229492</v>
       </c>
       <c r="R209" t="n">
-        <v>2.342692375183105</v>
+        <v>2.373340845108032</v>
       </c>
       <c r="S209" t="n">
-        <v>0.01334714889526367</v>
+        <v>0.01421809196472168</v>
       </c>
       <c r="T209" t="n">
-        <v>0.01929593086242676</v>
+        <v>0.01591825485229492</v>
       </c>
       <c r="U209" t="n">
-        <v>2.342692375183105</v>
+        <v>2.373340845108032</v>
       </c>
       <c r="V209" t="n">
         <v>1</v>
@@ -31322,18 +31322,18 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>0.002433538436889648</v>
+        <v>0.0159609317779541</v>
       </c>
       <c r="Q210" t="inlineStr"/>
       <c r="R210" t="n">
-        <v>2.079299688339233</v>
+        <v>2.202404022216797</v>
       </c>
       <c r="S210" t="n">
-        <v>0.002433538436889648</v>
+        <v>0.0159609317779541</v>
       </c>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="n">
-        <v>2.079299688339233</v>
+        <v>2.202404022216797</v>
       </c>
       <c r="V210" t="n">
         <v>1</v>
@@ -31468,22 +31468,22 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>0.01226973533630371</v>
+        <v>0.01377272605895996</v>
       </c>
       <c r="Q211" t="n">
-        <v>0</v>
+        <v>0.01774382591247559</v>
       </c>
       <c r="R211" t="n">
-        <v>0.5803041458129883</v>
+        <v>0.5513157844543457</v>
       </c>
       <c r="S211" t="n">
-        <v>0.01226973533630371</v>
+        <v>0.01377272605895996</v>
       </c>
       <c r="T211" t="n">
-        <v>0</v>
+        <v>0.01774382591247559</v>
       </c>
       <c r="U211" t="n">
-        <v>0.5803041458129883</v>
+        <v>0.5513157844543457</v>
       </c>
       <c r="V211" t="n">
         <v>1</v>
@@ -31618,22 +31618,22 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>0.01346731185913086</v>
+        <v>0.01428556442260742</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.01570892333984375</v>
+        <v>0.01893854141235352</v>
       </c>
       <c r="R212" t="n">
-        <v>1.177829265594482</v>
+        <v>1.246701240539551</v>
       </c>
       <c r="S212" t="n">
-        <v>0.01346731185913086</v>
+        <v>0.01428556442260742</v>
       </c>
       <c r="T212" t="n">
-        <v>0.01570892333984375</v>
+        <v>0.01893854141235352</v>
       </c>
       <c r="U212" t="n">
-        <v>1.177829265594482</v>
+        <v>1.246701240539551</v>
       </c>
       <c r="V212" t="n">
         <v>1</v>
@@ -31766,18 +31766,18 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>0.01065635681152344</v>
+        <v>0.01240229606628418</v>
       </c>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="n">
-        <v>0.3177118301391602</v>
+        <v>0.2996964454650879</v>
       </c>
       <c r="S213" t="n">
-        <v>0.01065635681152344</v>
+        <v>0.01240229606628418</v>
       </c>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="n">
-        <v>0.3177118301391602</v>
+        <v>0.2996964454650879</v>
       </c>
       <c r="V213" t="n">
         <v>1</v>
@@ -31912,22 +31912,22 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>0.01317834854125977</v>
+        <v>0.01377344131469727</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.004950046539306641</v>
+        <v>0</v>
       </c>
       <c r="R214" t="n">
-        <v>0.5245547294616699</v>
+        <v>0.5646460056304932</v>
       </c>
       <c r="S214" t="n">
-        <v>0.01317834854125977</v>
+        <v>0.01377344131469727</v>
       </c>
       <c r="T214" t="n">
-        <v>0.004950046539306641</v>
+        <v>0</v>
       </c>
       <c r="U214" t="n">
-        <v>0.5245547294616699</v>
+        <v>0.5646460056304932</v>
       </c>
       <c r="V214" t="n">
         <v>1</v>
@@ -32062,22 +32062,22 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>0.0140233039855957</v>
+        <v>0.01578783988952637</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.01781749725341797</v>
+        <v>0.0080108642578125</v>
       </c>
       <c r="R215" t="n">
-        <v>2.142440319061279</v>
+        <v>2.263604402542114</v>
       </c>
       <c r="S215" t="n">
-        <v>0.0140233039855957</v>
+        <v>0.01578783988952637</v>
       </c>
       <c r="T215" t="n">
-        <v>0.01781749725341797</v>
+        <v>0.0080108642578125</v>
       </c>
       <c r="U215" t="n">
-        <v>2.142440319061279</v>
+        <v>2.263604402542114</v>
       </c>
       <c r="V215" t="n">
         <v>1</v>
@@ -32212,22 +32212,22 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>0.01402401924133301</v>
+        <v>0.01304483413696289</v>
       </c>
       <c r="Q216" t="n">
-        <v>0</v>
+        <v>0.005751371383666992</v>
       </c>
       <c r="R216" t="n">
-        <v>0.803830623626709</v>
+        <v>0.8286950588226318</v>
       </c>
       <c r="S216" t="n">
-        <v>0.01402401924133301</v>
+        <v>0.01304483413696289</v>
       </c>
       <c r="T216" t="n">
-        <v>0</v>
+        <v>0.005751371383666992</v>
       </c>
       <c r="U216" t="n">
-        <v>0.803830623626709</v>
+        <v>0.8286950588226318</v>
       </c>
       <c r="V216" t="n">
         <v>1</v>
@@ -32360,18 +32360,18 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>0.01001691818237305</v>
+        <v>0.009529590606689453</v>
       </c>
       <c r="Q217" t="inlineStr"/>
       <c r="R217" t="n">
-        <v>0.949831485748291</v>
+        <v>0.9730868339538574</v>
       </c>
       <c r="S217" t="n">
-        <v>0.01001691818237305</v>
+        <v>0.009529590606689453</v>
       </c>
       <c r="T217" t="inlineStr"/>
       <c r="U217" t="n">
-        <v>0.949831485748291</v>
+        <v>0.9730868339538574</v>
       </c>
       <c r="V217" t="n">
         <v>1</v>
@@ -32504,18 +32504,18 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>0.01419210433959961</v>
+        <v>0.01378202438354492</v>
       </c>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="n">
-        <v>0.5414016246795654</v>
+        <v>0.5699713230133057</v>
       </c>
       <c r="S218" t="n">
-        <v>0.01419210433959961</v>
+        <v>0.01378202438354492</v>
       </c>
       <c r="T218" t="inlineStr"/>
       <c r="U218" t="n">
-        <v>0.5414016246795654</v>
+        <v>0.5699713230133057</v>
       </c>
       <c r="V218" t="n">
         <v>1</v>
@@ -32648,18 +32648,18 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>0.01267814636230469</v>
+        <v>0.01091361045837402</v>
       </c>
       <c r="Q219" t="inlineStr"/>
       <c r="R219" t="n">
-        <v>0.6786684989929199</v>
+        <v>0.7634544372558594</v>
       </c>
       <c r="S219" t="n">
-        <v>0.01267814636230469</v>
+        <v>0.01091361045837402</v>
       </c>
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="n">
-        <v>0.6786684989929199</v>
+        <v>0.7634544372558594</v>
       </c>
       <c r="V219" t="n">
         <v>1</v>
